--- a/data_xls/cars_data.xlsx
+++ b/data_xls/cars_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edint\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurev\Desktop\Faks\3.letnik\MT\PROJEKTNA\StromGrupn\data_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA913A-C131-4D8D-81B8-975BF7ECA62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09223B2D-9F70-449D-BB41-9A3F35D1A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="3300" windowWidth="17280" windowHeight="8964" xr2:uid="{BC148E1E-C769-416B-94DD-C87C09AA39D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC148E1E-C769-416B-94DD-C87C09AA39D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="893">
   <si>
     <t>Average</t>
   </si>
@@ -884,15 +884,1851 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lightyear 0", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Standard Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Long Range Dual Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "XPENG P5", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 39 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Pure", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 24 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 24 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 24 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-208", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Corsa-e", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 42 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 42 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV40 130hp", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Touring", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mini Cooper SE", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Dacia Spring Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 64 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 42 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 110 kW - 45 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pure Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Twingo Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 130hp", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R110", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 150 kW - 58 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Abarth 500e Scorpionissima", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Dual Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 220hp", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo coupe", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive35", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Honda e Advance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R135", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 58 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Grand Touring", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 64 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 51 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition R", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4 X", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308 SW", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 39.2 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia Niro EV", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 77 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 4 Seats", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 5 Seats", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U6", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive40", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Long Range Dual Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 64 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "DS 3 Crossback E-Tense", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 60", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "JAC iEV7s", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf e+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "ORA Funky Cat First Edition", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Long Range", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 60", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo cabrio", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Plaid", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 35", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-2008 SUV", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Mokka-e", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mazda MX-30", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Standard Range", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Standard Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 500 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 580 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 100 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD HAN", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Single Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80x", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition P", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 40", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Sono Sion", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 500 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Standard Range", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 100 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX1 xDrive30", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 35", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Standard Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 M50", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 43 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Long Range", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis G80 Electrified Luxury", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD ATTO 3", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 63kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 53 4MATIC+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 40", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Premium", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range 2WD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 300 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 350 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 GTX", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV RS", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro 4MOTION", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X FWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U5", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS AMG 53 4MATIC+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1 Brabus", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus UX 300e", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 45 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 50 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX3", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Dual Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80x", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 GTX", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Seres 3", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "SsangYong Korando e-Motion", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 87kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Extreme", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean One", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Cross Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4 Cross Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR RWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive40", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Sport", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Ultra", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 300 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 350 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 50 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 45 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 500 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i7 xDrive60", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV RS", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Pure Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 GT", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER RWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Subaru Solterra AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 55 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Dual Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 50 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport Plus", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Pure Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus RZ 450e", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER AWD", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 43 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive50", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Cross Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 100 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT RS", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Plaid", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV70 Electrified Sport", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Sport Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 53 4MATIC+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E GT", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 55 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Twin Pure Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 50 quattro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQC 400 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX M60", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Cross Turismo", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Dual motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450+", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L1 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Rolls-Royce Spectre", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Twin Pure Electric", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Jaguar I-Pace EV400", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 580 4MATIC", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Standard 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L2 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron Sportback", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life XL 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo XL 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Long 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID. Buzz Pro", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre R", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD TANG", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor Performance", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 84 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 99 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 50 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso L 75 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 60 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 90 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Long", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Extra-Long", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 60 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Extra-Long", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 90 kWh", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Long", Value = "</t>
+  </si>
+  <si>
+    <t>297.000;</t>
+  </si>
+  <si>
+    <t>43.900;</t>
+  </si>
+  <si>
+    <t>52.965;</t>
+  </si>
+  <si>
+    <t>62.465;</t>
+  </si>
+  <si>
+    <t>54.000;</t>
+  </si>
+  <si>
+    <t>48.000;</t>
+  </si>
+  <si>
+    <t>36.400;</t>
+  </si>
+  <si>
+    <t>100.000;</t>
+  </si>
+  <si>
+    <t>30.990;</t>
+  </si>
+  <si>
+    <t>32.290;</t>
+  </si>
+  <si>
+    <t>35.490;</t>
+  </si>
+  <si>
+    <t>35.350;</t>
+  </si>
+  <si>
+    <t>33.895;</t>
+  </si>
+  <si>
+    <t>34.990;</t>
+  </si>
+  <si>
+    <t>36.990;</t>
+  </si>
+  <si>
+    <t>42.000;</t>
+  </si>
+  <si>
+    <t>120.000;</t>
+  </si>
+  <si>
+    <t>35.700;</t>
+  </si>
+  <si>
+    <t>22.550;</t>
+  </si>
+  <si>
+    <t>42.900;</t>
+  </si>
+  <si>
+    <t>37.990;</t>
+  </si>
+  <si>
+    <t>66.465;</t>
+  </si>
+  <si>
+    <t>32.700;</t>
+  </si>
+  <si>
+    <t>28.000;</t>
+  </si>
+  <si>
+    <t>47.000;</t>
+  </si>
+  <si>
+    <t>44.000;</t>
+  </si>
+  <si>
+    <t>36.840;</t>
+  </si>
+  <si>
+    <t>39.370;</t>
+  </si>
+  <si>
+    <t>35.460;</t>
+  </si>
+  <si>
+    <t>38.060;</t>
+  </si>
+  <si>
+    <t>33.400;</t>
+  </si>
+  <si>
+    <t>105.000;</t>
+  </si>
+  <si>
+    <t>56.965;</t>
+  </si>
+  <si>
+    <t>46.600;</t>
+  </si>
+  <si>
+    <t>21.940;</t>
+  </si>
+  <si>
+    <t>56.500;</t>
+  </si>
+  <si>
+    <t>39.900;</t>
+  </si>
+  <si>
+    <t>37.840;</t>
+  </si>
+  <si>
+    <t>40.750;</t>
+  </si>
+  <si>
+    <t>61.100;</t>
+  </si>
+  <si>
+    <t>175.000;</t>
+  </si>
+  <si>
+    <t>109.551;</t>
+  </si>
+  <si>
+    <t>35.990;</t>
+  </si>
+  <si>
+    <t>31.990;</t>
+  </si>
+  <si>
+    <t>218.000;</t>
+  </si>
+  <si>
+    <t>36.040;</t>
+  </si>
+  <si>
+    <t>38.000;</t>
+  </si>
+  <si>
+    <t>45.000;</t>
+  </si>
+  <si>
+    <t>40.290;</t>
+  </si>
+  <si>
+    <t>47.590;</t>
+  </si>
+  <si>
+    <t>46.450;</t>
+  </si>
+  <si>
+    <t>43.560;</t>
+  </si>
+  <si>
+    <t>43.720;</t>
+  </si>
+  <si>
+    <t>47.588;</t>
+  </si>
+  <si>
+    <t>59.200;</t>
+  </si>
+  <si>
+    <t>59.965;</t>
+  </si>
+  <si>
+    <t>70.626;</t>
+  </si>
+  <si>
+    <t>66.402;</t>
+  </si>
+  <si>
+    <t>70.210;</t>
+  </si>
+  <si>
+    <t>46.950;</t>
+  </si>
+  <si>
+    <t>40.540;</t>
+  </si>
+  <si>
+    <t>88.399;</t>
+  </si>
+  <si>
+    <t>29.900;</t>
+  </si>
+  <si>
+    <t>41.100;</t>
+  </si>
+  <si>
+    <t>36.971;</t>
+  </si>
+  <si>
+    <t>113.359;</t>
+  </si>
+  <si>
+    <t>38.490;</t>
+  </si>
+  <si>
+    <t>42.100;</t>
+  </si>
+  <si>
+    <t>25.200;</t>
+  </si>
+  <si>
+    <t>138.970;</t>
+  </si>
+  <si>
+    <t>94.123;</t>
+  </si>
+  <si>
+    <t>82.850;</t>
+  </si>
+  <si>
+    <t>46.700;</t>
+  </si>
+  <si>
+    <t>37.900;</t>
+  </si>
+  <si>
+    <t>37.650;</t>
+  </si>
+  <si>
+    <t>46.990;</t>
+  </si>
+  <si>
+    <t>125.378;</t>
+  </si>
+  <si>
+    <t>141.705;</t>
+  </si>
+  <si>
+    <t>91.850;</t>
+  </si>
+  <si>
+    <t>62.850;</t>
+  </si>
+  <si>
+    <t>70.805;</t>
+  </si>
+  <si>
+    <t>50.995;</t>
+  </si>
+  <si>
+    <t>47.935;</t>
+  </si>
+  <si>
+    <t>48.970;</t>
+  </si>
+  <si>
+    <t>49.000;</t>
+  </si>
+  <si>
+    <t>108.867;</t>
+  </si>
+  <si>
+    <t>53.900;</t>
+  </si>
+  <si>
+    <t>50.990;</t>
+  </si>
+  <si>
+    <t>68.465;</t>
+  </si>
+  <si>
+    <t>29.899;</t>
+  </si>
+  <si>
+    <t>73.363;</t>
+  </si>
+  <si>
+    <t>87.286;</t>
+  </si>
+  <si>
+    <t>33.990;</t>
+  </si>
+  <si>
+    <t>71.850;</t>
+  </si>
+  <si>
+    <t>114.389;</t>
+  </si>
+  <si>
+    <t>55.000;</t>
+  </si>
+  <si>
+    <t>38.450;</t>
+  </si>
+  <si>
+    <t>44.700;</t>
+  </si>
+  <si>
+    <t>36.950;</t>
+  </si>
+  <si>
+    <t>41.490;</t>
+  </si>
+  <si>
+    <t>46.800;</t>
+  </si>
+  <si>
+    <t>54.980;</t>
+  </si>
+  <si>
+    <t>70.800;</t>
+  </si>
+  <si>
+    <t>134.214;</t>
+  </si>
+  <si>
+    <t>103.827;</t>
+  </si>
+  <si>
+    <t>89.351;</t>
+  </si>
+  <si>
+    <t>50.777;</t>
+  </si>
+  <si>
+    <t>69.200;</t>
+  </si>
+  <si>
+    <t>44.625;</t>
+  </si>
+  <si>
+    <t>46.335;</t>
+  </si>
+  <si>
+    <t>48.190;</t>
+  </si>
+  <si>
+    <t>52.205;</t>
+  </si>
+  <si>
+    <t>47.490;</t>
+  </si>
+  <si>
+    <t>95.074;</t>
+  </si>
+  <si>
+    <t>109.777;</t>
+  </si>
+  <si>
+    <t>51.900;</t>
+  </si>
+  <si>
+    <t>54,342;</t>
+  </si>
+  <si>
+    <t>47.900;</t>
+  </si>
+  <si>
+    <t>53.746;</t>
+  </si>
+  <si>
+    <t>56.424;</t>
+  </si>
+  <si>
+    <t>56.455;</t>
+  </si>
+  <si>
+    <t>61.960;</t>
+  </si>
+  <si>
+    <t>49.020;</t>
+  </si>
+  <si>
+    <t>39.563;</t>
+  </si>
+  <si>
+    <t>155.009;</t>
+  </si>
+  <si>
+    <t>48.990;</t>
+  </si>
+  <si>
+    <t>47.550;</t>
+  </si>
+  <si>
+    <t>55.900;</t>
+  </si>
+  <si>
+    <t>59.900;</t>
+  </si>
+  <si>
+    <t>109.819;</t>
+  </si>
+  <si>
+    <t>67.300;</t>
+  </si>
+  <si>
+    <t>54.995;</t>
+  </si>
+  <si>
+    <t>49.050;</t>
+  </si>
+  <si>
+    <t>53.255;</t>
+  </si>
+  <si>
+    <t>37.995;</t>
+  </si>
+  <si>
+    <t>52.550;</t>
+  </si>
+  <si>
+    <t>85.000;</t>
+  </si>
+  <si>
+    <t>57.390;</t>
+  </si>
+  <si>
+    <t>40.490;</t>
+  </si>
+  <si>
+    <t>53.978;</t>
+  </si>
+  <si>
+    <t>115.341;</t>
+  </si>
+  <si>
+    <t>56.370;</t>
+  </si>
+  <si>
+    <t>61.495;</t>
+  </si>
+  <si>
+    <t>63.490;</t>
+  </si>
+  <si>
+    <t>69.950;</t>
+  </si>
+  <si>
+    <t>135.166;</t>
+  </si>
+  <si>
+    <t>114.222;</t>
+  </si>
+  <si>
+    <t>98.514;</t>
+  </si>
+  <si>
+    <t>62.900;</t>
+  </si>
+  <si>
+    <t>77.300;</t>
+  </si>
+  <si>
+    <t>41.560;</t>
+  </si>
+  <si>
+    <t>57.000;</t>
+  </si>
+  <si>
+    <t>55.519;</t>
+  </si>
+  <si>
+    <t>58.197;</t>
+  </si>
+  <si>
+    <t>57.900;</t>
+  </si>
+  <si>
+    <t>53.990;</t>
+  </si>
+  <si>
+    <t>90.000;</t>
+  </si>
+  <si>
+    <t>115.000;</t>
+  </si>
+  <si>
+    <t>135.900;</t>
+  </si>
+  <si>
+    <t>60.000;</t>
+  </si>
+  <si>
+    <t>45.080;</t>
+  </si>
+  <si>
+    <t>69.990;</t>
+  </si>
+  <si>
+    <t>71.200;</t>
+  </si>
+  <si>
+    <t>57.490;</t>
+  </si>
+  <si>
+    <t>156.348;</t>
+  </si>
+  <si>
+    <t>87.550;</t>
+  </si>
+  <si>
+    <t>110.000;</t>
+  </si>
+  <si>
+    <t>76.650;</t>
+  </si>
+  <si>
+    <t>106.050;</t>
+  </si>
+  <si>
+    <t>71.010;</t>
+  </si>
+  <si>
+    <t>48.850;</t>
+  </si>
+  <si>
+    <t>95.990;</t>
+  </si>
+  <si>
+    <t>157.300;</t>
+  </si>
+  <si>
+    <t>77.200;</t>
+  </si>
+  <si>
+    <t>66.490;</t>
+  </si>
+  <si>
+    <t>86.850;</t>
+  </si>
+  <si>
+    <t>100.100;</t>
+  </si>
+  <si>
+    <t>189.668;</t>
+  </si>
+  <si>
+    <t>157.776;</t>
+  </si>
+  <si>
+    <t>95.850;</t>
+  </si>
+  <si>
+    <t>146.050;</t>
+  </si>
+  <si>
+    <t>141.970;</t>
+  </si>
+  <si>
+    <t>190.620;</t>
+  </si>
+  <si>
+    <t>135.000;</t>
+  </si>
+  <si>
+    <t>86.200;</t>
+  </si>
+  <si>
+    <t>85.300;</t>
+  </si>
+  <si>
+    <t>57.650;</t>
+  </si>
+  <si>
+    <t>74.400;</t>
+  </si>
+  <si>
+    <t>66.069;</t>
+  </si>
+  <si>
+    <t>136.100;</t>
+  </si>
+  <si>
+    <t>191.096;</t>
+  </si>
+  <si>
+    <t>88.600;</t>
+  </si>
+  <si>
+    <t>110.658;</t>
+  </si>
+  <si>
+    <t>37.800;</t>
+  </si>
+  <si>
+    <t>400.000;</t>
+  </si>
+  <si>
+    <t>56.150;</t>
+  </si>
+  <si>
+    <t>76.815;</t>
+  </si>
+  <si>
+    <t>114.446;</t>
+  </si>
+  <si>
+    <t>135.291;</t>
+  </si>
+  <si>
+    <t>43.050;</t>
+  </si>
+  <si>
+    <t>37.790;</t>
+  </si>
+  <si>
+    <t>41.240;</t>
+  </si>
+  <si>
+    <t>40.150;</t>
+  </si>
+  <si>
+    <t>66.000;</t>
+  </si>
+  <si>
+    <t>95.200;</t>
+  </si>
+  <si>
+    <t>44.750;</t>
+  </si>
+  <si>
+    <t>43.640;</t>
+  </si>
+  <si>
+    <t>42.440;</t>
+  </si>
+  <si>
+    <t>64.581;</t>
+  </si>
+  <si>
+    <t>105.550;</t>
+  </si>
+  <si>
+    <t>150.990;</t>
+  </si>
+  <si>
+    <t>71.400;</t>
+  </si>
+  <si>
+    <t>110.650;</t>
+  </si>
+  <si>
+    <t>51.940;</t>
+  </si>
+  <si>
+    <t>53.640;</t>
+  </si>
+  <si>
+    <t>50.992;</t>
+  </si>
+  <si>
+    <t>63.250;</t>
+  </si>
+  <si>
+    <t>55.990;</t>
+  </si>
+  <si>
+    <t>83.590;</t>
+  </si>
+  <si>
+    <t>94.590;</t>
+  </si>
+  <si>
+    <t>57.940;</t>
+  </si>
+  <si>
+    <t>59.640;</t>
+  </si>
+  <si>
+    <t>56.942;</t>
+  </si>
+  <si>
+    <t>69.250;</t>
+  </si>
+  <si>
+    <t>61.990;</t>
+  </si>
+  <si>
+    <t>64.530;</t>
+  </si>
+  <si>
+    <t>52.730;</t>
+  </si>
+  <si>
+    <t>54.430;</t>
+  </si>
+  <si>
+    <t>51.825;</t>
+  </si>
+  <si>
+    <t>64.075;</t>
+  </si>
+  <si>
+    <t>58.845;</t>
+  </si>
+  <si>
+    <t>68.545;</t>
+  </si>
+  <si>
+    <t>56.990;</t>
+  </si>
+  <si>
+    <t>58.730;</t>
+  </si>
+  <si>
+    <t>60.430;</t>
+  </si>
+  <si>
+    <t>57.775;</t>
+  </si>
+  <si>
+    <t>70.075;</t>
+  </si>
+  <si>
+    <t>60.045;</t>
+  </si>
+  <si>
+    <t>69.745;</t>
+  </si>
+  <si>
+    <t>62.990;</t>
+  </si>
+  <si>
+    <t>65.385;</t>
+  </si>
+  <si>
+    <t>60.678;</t>
+  </si>
+  <si>
+    <t>64.248;</t>
+  </si>
+  <si>
+    <t>68.056;</t>
+  </si>
+  <si>
+    <t>68.949;</t>
+  </si>
+  <si>
+    <t>61.571;</t>
+  </si>
+  <si>
+    <t>72.519;</t>
+  </si>
+  <si>
+    <t>65.140;</t>
+  </si>
+  <si>
+    <t>71.626;</t>
+  </si>
+  <si>
+    <t>109" };</t>
+  </si>
+  <si>
+    <t>150" };</t>
+  </si>
+  <si>
+    <t>151" };</t>
+  </si>
+  <si>
+    <t>155" };</t>
+  </si>
+  <si>
+    <t>156" };</t>
+  </si>
+  <si>
+    <t>157" };</t>
+  </si>
+  <si>
+    <t>158" };</t>
+  </si>
+  <si>
+    <t>159" };</t>
+  </si>
+  <si>
+    <t>160" };</t>
+  </si>
+  <si>
+    <t>161" };</t>
+  </si>
+  <si>
+    <t>162" };</t>
+  </si>
+  <si>
+    <t>163" };</t>
+  </si>
+  <si>
+    <t>164" };</t>
+  </si>
+  <si>
+    <t>165" };</t>
+  </si>
+  <si>
+    <t>166" };</t>
+  </si>
+  <si>
+    <t>167" };</t>
+  </si>
+  <si>
+    <t>168" };</t>
+  </si>
+  <si>
+    <t>169" };</t>
+  </si>
+  <si>
+    <t>170" };</t>
+  </si>
+  <si>
+    <t>171" };</t>
+  </si>
+  <si>
+    <t>172" };</t>
+  </si>
+  <si>
+    <t>173" };</t>
+  </si>
+  <si>
+    <t>174" };</t>
+  </si>
+  <si>
+    <t>175" };</t>
+  </si>
+  <si>
+    <t>176" };</t>
+  </si>
+  <si>
+    <t>177" };</t>
+  </si>
+  <si>
+    <t>178" };</t>
+  </si>
+  <si>
+    <t>179" };</t>
+  </si>
+  <si>
+    <t>180" };</t>
+  </si>
+  <si>
+    <t>181" };</t>
+  </si>
+  <si>
+    <t>182" };</t>
+  </si>
+  <si>
+    <t>183" };</t>
+  </si>
+  <si>
+    <t>185" };</t>
+  </si>
+  <si>
+    <t>186" };</t>
+  </si>
+  <si>
+    <t>187" };</t>
+  </si>
+  <si>
+    <t>188" };</t>
+  </si>
+  <si>
+    <t>189" };</t>
+  </si>
+  <si>
+    <t>190" };</t>
+  </si>
+  <si>
+    <t>191" };</t>
+  </si>
+  <si>
+    <t>192" };</t>
+  </si>
+  <si>
+    <t>193" };</t>
+  </si>
+  <si>
+    <t>194" };</t>
+  </si>
+  <si>
+    <t>195" };</t>
+  </si>
+  <si>
+    <t>196" };</t>
+  </si>
+  <si>
+    <t>197" };</t>
+  </si>
+  <si>
+    <t>198" };</t>
+  </si>
+  <si>
+    <t>199" };</t>
+  </si>
+  <si>
+    <t>200" };</t>
+  </si>
+  <si>
+    <t>201" };</t>
+  </si>
+  <si>
+    <t>202" };</t>
+  </si>
+  <si>
+    <t>203" };</t>
+  </si>
+  <si>
+    <t>204" };</t>
+  </si>
+  <si>
+    <t>206" };</t>
+  </si>
+  <si>
+    <t>207" };</t>
+  </si>
+  <si>
+    <t>208" };</t>
+  </si>
+  <si>
+    <t>209" };</t>
+  </si>
+  <si>
+    <t>210" };</t>
+  </si>
+  <si>
+    <t>211" };</t>
+  </si>
+  <si>
+    <t>212" };</t>
+  </si>
+  <si>
+    <t>213" };</t>
+  </si>
+  <si>
+    <t>214" };</t>
+  </si>
+  <si>
+    <t>216" };</t>
+  </si>
+  <si>
+    <t>217" };</t>
+  </si>
+  <si>
+    <t>218" };</t>
+  </si>
+  <si>
+    <t>219" };</t>
+  </si>
+  <si>
+    <t>220" };</t>
+  </si>
+  <si>
+    <t>221" };</t>
+  </si>
+  <si>
+    <t>223" };</t>
+  </si>
+  <si>
+    <t>224" };</t>
+  </si>
+  <si>
+    <t>225" };</t>
+  </si>
+  <si>
+    <t>226" };</t>
+  </si>
+  <si>
+    <t>228" };</t>
+  </si>
+  <si>
+    <t>231" };</t>
+  </si>
+  <si>
+    <t>233" };</t>
+  </si>
+  <si>
+    <t>235" };</t>
+  </si>
+  <si>
+    <t>238" };</t>
+  </si>
+  <si>
+    <t>240" };</t>
+  </si>
+  <si>
+    <t>243" };</t>
+  </si>
+  <si>
+    <t>250" };</t>
+  </si>
+  <si>
+    <t>251" };</t>
+  </si>
+  <si>
+    <t>254" };</t>
+  </si>
+  <si>
+    <t>257" };</t>
+  </si>
+  <si>
+    <t>262" };</t>
+  </si>
+  <si>
+    <t>286" };</t>
+  </si>
+  <si>
+    <t>290" };</t>
+  </si>
+  <si>
+    <t>293" };</t>
+  </si>
+  <si>
+    <t>295" };</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -928,14 +2764,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -955,9 +2790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -995,7 +2830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1101,7 +2936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1251,19 +3086,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9091D1D-26EF-4241-8B9A-2BD97A359E3E}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +3109,17 @@
       <c r="C1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1284,8 +3129,17 @@
       <c r="C2" s="1">
         <v>297000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +3149,17 @@
       <c r="C3" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>559</v>
+      </c>
+      <c r="I3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +3169,17 @@
       <c r="C4" s="1">
         <v>52965</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1317,19 +3189,37 @@
       <c r="C5" s="1">
         <v>62465</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>156</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1339,8 +3229,17 @@
       <c r="C7" s="1">
         <v>48000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +3249,17 @@
       <c r="C8" s="1">
         <v>36400</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" t="s">
+        <v>564</v>
+      </c>
+      <c r="I8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +3269,17 @@
       <c r="C9" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" t="s">
+        <v>565</v>
+      </c>
+      <c r="I9" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1372,8 +3289,17 @@
       <c r="C10" s="1">
         <v>30990</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1383,8 +3309,17 @@
       <c r="C11" s="1">
         <v>32290</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" t="s">
+        <v>567</v>
+      </c>
+      <c r="I11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1394,8 +3329,17 @@
       <c r="C12" s="1">
         <v>35490</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" t="s">
+        <v>568</v>
+      </c>
+      <c r="I12" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1405,8 +3349,17 @@
       <c r="C13" s="1">
         <v>35350</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" t="s">
+        <v>569</v>
+      </c>
+      <c r="I13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1416,8 +3369,17 @@
       <c r="C14" s="1">
         <v>33895</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" t="s">
+        <v>570</v>
+      </c>
+      <c r="I14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1427,8 +3389,17 @@
       <c r="C15" s="1">
         <v>34990</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" t="s">
+        <v>571</v>
+      </c>
+      <c r="I15" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1438,8 +3409,17 @@
       <c r="C16" s="1">
         <v>36990</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" t="s">
+        <v>572</v>
+      </c>
+      <c r="I16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1449,8 +3429,17 @@
       <c r="C17" s="1">
         <v>42000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>573</v>
+      </c>
+      <c r="I17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1460,8 +3449,17 @@
       <c r="C18" s="1">
         <v>120000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" t="s">
+        <v>574</v>
+      </c>
+      <c r="I18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1471,8 +3469,17 @@
       <c r="C19" s="1">
         <v>35700</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1482,8 +3489,17 @@
       <c r="C20" s="1">
         <v>22550</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1493,8 +3509,17 @@
       <c r="C21" s="1">
         <v>42900</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I21" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1504,8 +3529,17 @@
       <c r="C22" s="1">
         <v>37990</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I22" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +3549,17 @@
       <c r="C23" s="1">
         <v>66465</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" t="s">
+        <v>579</v>
+      </c>
+      <c r="I23" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1526,8 +3569,17 @@
       <c r="C24" s="1">
         <v>32700</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>577</v>
+      </c>
+      <c r="I24" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1537,8 +3589,17 @@
       <c r="C25" s="1">
         <v>37990</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I25" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1548,8 +3609,17 @@
       <c r="C26" s="1">
         <v>28000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" t="s">
+        <v>581</v>
+      </c>
+      <c r="I26" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1559,8 +3629,17 @@
       <c r="C27" s="1">
         <v>47000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H27" t="s">
+        <v>582</v>
+      </c>
+      <c r="I27" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1570,8 +3649,17 @@
       <c r="C28" s="1">
         <v>44000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" t="s">
+        <v>583</v>
+      </c>
+      <c r="I28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1581,8 +3669,17 @@
       <c r="C29" s="1">
         <v>36840</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" t="s">
+        <v>584</v>
+      </c>
+      <c r="I29" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1592,8 +3689,17 @@
       <c r="C30" s="1">
         <v>39370</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" t="s">
+        <v>585</v>
+      </c>
+      <c r="I30" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1603,8 +3709,17 @@
       <c r="C31" s="1">
         <v>35460</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>586</v>
+      </c>
+      <c r="I31" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1614,8 +3729,17 @@
       <c r="C32" s="1">
         <v>38060</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1625,8 +3749,17 @@
       <c r="C33" s="1">
         <v>42000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" t="s">
+        <v>587</v>
+      </c>
+      <c r="I33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1636,8 +3769,17 @@
       <c r="C34" s="1">
         <v>33400</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H34" t="s">
+        <v>588</v>
+      </c>
+      <c r="I34" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1647,8 +3789,17 @@
       <c r="C35" s="1">
         <v>105000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" t="s">
+        <v>589</v>
+      </c>
+      <c r="I35" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1658,8 +3809,17 @@
       <c r="C36" s="1">
         <v>56965</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" t="s">
+        <v>590</v>
+      </c>
+      <c r="I36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1669,8 +3829,17 @@
       <c r="C37" s="1">
         <v>46600</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" t="s">
+        <v>591</v>
+      </c>
+      <c r="I37" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1680,8 +3849,17 @@
       <c r="C38" s="1">
         <v>21940</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>317</v>
+      </c>
+      <c r="H38" t="s">
+        <v>592</v>
+      </c>
+      <c r="I38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1691,8 +3869,17 @@
       <c r="C39" s="1">
         <v>56500</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" t="s">
+        <v>593</v>
+      </c>
+      <c r="I39" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1702,8 +3889,17 @@
       <c r="C40" s="1">
         <v>39900</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" t="s">
+        <v>594</v>
+      </c>
+      <c r="I40" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1713,8 +3909,17 @@
       <c r="C41" s="1">
         <v>37840</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>320</v>
+      </c>
+      <c r="H41" t="s">
+        <v>595</v>
+      </c>
+      <c r="I41" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1724,8 +3929,17 @@
       <c r="C42" s="1">
         <v>40750</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H42" t="s">
+        <v>596</v>
+      </c>
+      <c r="I42" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1735,8 +3949,17 @@
       <c r="C43" s="1">
         <v>61100</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" t="s">
+        <v>597</v>
+      </c>
+      <c r="I43" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1746,8 +3969,17 @@
       <c r="C44" s="1">
         <v>175000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>323</v>
+      </c>
+      <c r="H44" t="s">
+        <v>598</v>
+      </c>
+      <c r="I44" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1757,8 +3989,17 @@
       <c r="C45" s="1">
         <v>109551</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>324</v>
+      </c>
+      <c r="H45" t="s">
+        <v>599</v>
+      </c>
+      <c r="I45" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1768,8 +4009,17 @@
       <c r="C46" s="1">
         <v>35990</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" t="s">
+        <v>600</v>
+      </c>
+      <c r="I46" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1779,8 +4029,17 @@
       <c r="C47" s="1">
         <v>31990</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" t="s">
+        <v>601</v>
+      </c>
+      <c r="I47" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1790,8 +4049,17 @@
       <c r="C48" s="1">
         <v>218000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>327</v>
+      </c>
+      <c r="H48" t="s">
+        <v>602</v>
+      </c>
+      <c r="I48" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1801,8 +4069,17 @@
       <c r="C49" s="1">
         <v>36040</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" t="s">
+        <v>603</v>
+      </c>
+      <c r="I49" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1812,8 +4089,17 @@
       <c r="C50" s="1">
         <v>38000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" t="s">
+        <v>604</v>
+      </c>
+      <c r="I50" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1823,8 +4109,17 @@
       <c r="C51" s="1">
         <v>45000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H51" t="s">
+        <v>605</v>
+      </c>
+      <c r="I51" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1834,8 +4129,17 @@
       <c r="C52" s="1">
         <v>40290</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+      <c r="H52" t="s">
+        <v>606</v>
+      </c>
+      <c r="I52" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1845,8 +4149,17 @@
       <c r="C53" s="1">
         <v>47590</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" t="s">
+        <v>607</v>
+      </c>
+      <c r="I53" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1856,8 +4169,17 @@
       <c r="C54" s="1">
         <v>46450</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" t="s">
+        <v>608</v>
+      </c>
+      <c r="I54" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1867,8 +4189,17 @@
       <c r="C55" s="1">
         <v>43560</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" t="s">
+        <v>609</v>
+      </c>
+      <c r="I55" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1878,8 +4209,17 @@
       <c r="C56" s="1">
         <v>43720</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" t="s">
+        <v>610</v>
+      </c>
+      <c r="I56" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1889,8 +4229,17 @@
       <c r="C57" s="1">
         <v>47588</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>336</v>
+      </c>
+      <c r="H57" t="s">
+        <v>611</v>
+      </c>
+      <c r="I57" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1900,8 +4249,17 @@
       <c r="C58" s="1">
         <v>59200</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>337</v>
+      </c>
+      <c r="H58" t="s">
+        <v>612</v>
+      </c>
+      <c r="I58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1911,8 +4269,17 @@
       <c r="C59" s="1">
         <v>59965</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>338</v>
+      </c>
+      <c r="H59" t="s">
+        <v>613</v>
+      </c>
+      <c r="I59" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1922,8 +4289,17 @@
       <c r="C60" s="1">
         <v>70626</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>339</v>
+      </c>
+      <c r="H60" t="s">
+        <v>614</v>
+      </c>
+      <c r="I60" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1933,8 +4309,17 @@
       <c r="C61" s="1">
         <v>66402</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>340</v>
+      </c>
+      <c r="H61" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1944,8 +4329,17 @@
       <c r="C62" s="1">
         <v>70210</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>341</v>
+      </c>
+      <c r="H62" t="s">
+        <v>616</v>
+      </c>
+      <c r="I62" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1955,8 +4349,17 @@
       <c r="C63" s="1">
         <v>46950</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>342</v>
+      </c>
+      <c r="H63" t="s">
+        <v>581</v>
+      </c>
+      <c r="I63" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1966,8 +4369,17 @@
       <c r="C64" s="1">
         <v>47000</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>343</v>
+      </c>
+      <c r="H64" t="s">
+        <v>617</v>
+      </c>
+      <c r="I64" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1977,8 +4389,17 @@
       <c r="C65" s="1">
         <v>40540</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>344</v>
+      </c>
+      <c r="H65" t="s">
+        <v>572</v>
+      </c>
+      <c r="I65" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1988,8 +4409,17 @@
       <c r="C66" s="1">
         <v>42000</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>345</v>
+      </c>
+      <c r="H66" t="s">
+        <v>618</v>
+      </c>
+      <c r="I66" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1999,8 +4429,17 @@
       <c r="C67" s="1">
         <v>88399</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>346</v>
+      </c>
+      <c r="H67" t="s">
+        <v>619</v>
+      </c>
+      <c r="I67" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2010,8 +4449,17 @@
       <c r="C68" s="1">
         <v>29900</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>347</v>
+      </c>
+      <c r="H68" t="s">
+        <v>620</v>
+      </c>
+      <c r="I68" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2021,8 +4469,17 @@
       <c r="C69" s="1">
         <v>41100</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" t="s">
+        <v>621</v>
+      </c>
+      <c r="I69" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2032,8 +4489,17 @@
       <c r="C70" s="1">
         <v>36971</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" t="s">
+        <v>622</v>
+      </c>
+      <c r="I70" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2043,8 +4509,17 @@
       <c r="C71" s="1">
         <v>113359</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>350</v>
+      </c>
+      <c r="H71" t="s">
+        <v>623</v>
+      </c>
+      <c r="I71" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2054,8 +4529,17 @@
       <c r="C72" s="1">
         <v>38490</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>351</v>
+      </c>
+      <c r="H72" t="s">
+        <v>624</v>
+      </c>
+      <c r="I72" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2065,8 +4549,17 @@
       <c r="C73" s="1">
         <v>42100</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>352</v>
+      </c>
+      <c r="H73" t="s">
+        <v>625</v>
+      </c>
+      <c r="I73" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2076,8 +4569,17 @@
       <c r="C74" s="1">
         <v>25200</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>353</v>
+      </c>
+      <c r="H74" t="s">
+        <v>626</v>
+      </c>
+      <c r="I74" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2087,8 +4589,17 @@
       <c r="C75" s="1">
         <v>138970</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>354</v>
+      </c>
+      <c r="H75" t="s">
+        <v>627</v>
+      </c>
+      <c r="I75" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2098,8 +4609,17 @@
       <c r="C76" s="1">
         <v>94123</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>355</v>
+      </c>
+      <c r="H76" t="s">
+        <v>628</v>
+      </c>
+      <c r="I76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2109,8 +4629,17 @@
       <c r="C77" s="1">
         <v>82850</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>356</v>
+      </c>
+      <c r="H77" t="s">
+        <v>629</v>
+      </c>
+      <c r="I77" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2120,8 +4649,17 @@
       <c r="C78" s="1">
         <v>46700</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>357</v>
+      </c>
+      <c r="H78" t="s">
+        <v>630</v>
+      </c>
+      <c r="I78" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2131,8 +4669,17 @@
       <c r="C79" s="1">
         <v>37900</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>358</v>
+      </c>
+      <c r="H79" t="s">
+        <v>631</v>
+      </c>
+      <c r="I79" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2142,8 +4689,17 @@
       <c r="C80" s="1">
         <v>37650</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>359</v>
+      </c>
+      <c r="H80" t="s">
+        <v>599</v>
+      </c>
+      <c r="I80" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2153,8 +4709,17 @@
       <c r="C81" s="1">
         <v>35990</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>360</v>
+      </c>
+      <c r="H81" t="s">
+        <v>567</v>
+      </c>
+      <c r="I81" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2164,8 +4729,17 @@
       <c r="C82" s="1">
         <v>35490</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>361</v>
+      </c>
+      <c r="H82" t="s">
+        <v>632</v>
+      </c>
+      <c r="I82" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2175,8 +4749,17 @@
       <c r="C83" s="1">
         <v>46990</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>362</v>
+      </c>
+      <c r="H83" t="s">
+        <v>633</v>
+      </c>
+      <c r="I83" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2186,8 +4769,17 @@
       <c r="C84" s="1">
         <v>125378</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>363</v>
+      </c>
+      <c r="H84" t="s">
+        <v>634</v>
+      </c>
+      <c r="I84" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2197,8 +4789,17 @@
       <c r="C85" s="1">
         <v>141705</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>364</v>
+      </c>
+      <c r="H85" t="s">
+        <v>635</v>
+      </c>
+      <c r="I85" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2208,8 +4809,17 @@
       <c r="C86" s="1">
         <v>91850</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>365</v>
+      </c>
+      <c r="H86" t="s">
+        <v>636</v>
+      </c>
+      <c r="I86" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2219,8 +4829,17 @@
       <c r="C87" s="1">
         <v>62850</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>366</v>
+      </c>
+      <c r="H87" t="s">
+        <v>637</v>
+      </c>
+      <c r="I87" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2230,8 +4849,17 @@
       <c r="C88" s="1">
         <v>70805</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>367</v>
+      </c>
+      <c r="H88" t="s">
+        <v>638</v>
+      </c>
+      <c r="I88" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2241,8 +4869,17 @@
       <c r="C89" s="1">
         <v>50995</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>368</v>
+      </c>
+      <c r="H89" t="s">
+        <v>639</v>
+      </c>
+      <c r="I89" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2252,8 +4889,17 @@
       <c r="C90" s="1">
         <v>47935</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90" t="s">
+        <v>640</v>
+      </c>
+      <c r="I90" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2263,8 +4909,17 @@
       <c r="C91" s="1">
         <v>48970</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>370</v>
+      </c>
+      <c r="H91" t="s">
+        <v>641</v>
+      </c>
+      <c r="I91" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2274,8 +4929,17 @@
       <c r="C92" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>371</v>
+      </c>
+      <c r="H92" t="s">
+        <v>642</v>
+      </c>
+      <c r="I92" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2285,8 +4949,17 @@
       <c r="C93" s="1">
         <v>108867</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>372</v>
+      </c>
+      <c r="H93" t="s">
+        <v>601</v>
+      </c>
+      <c r="I93" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2296,8 +4969,17 @@
       <c r="C94" s="1">
         <v>218000</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>373</v>
+      </c>
+      <c r="H94" t="s">
+        <v>643</v>
+      </c>
+      <c r="I94" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2307,8 +4989,17 @@
       <c r="C95" s="1">
         <v>53900</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>374</v>
+      </c>
+      <c r="H95" t="s">
+        <v>644</v>
+      </c>
+      <c r="I95" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2318,8 +5009,17 @@
       <c r="C96" s="1">
         <v>50990</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>375</v>
+      </c>
+      <c r="H96" t="s">
+        <v>645</v>
+      </c>
+      <c r="I96" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2329,8 +5029,17 @@
       <c r="C97" s="1">
         <v>68465</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>376</v>
+      </c>
+      <c r="H97" t="s">
+        <v>646</v>
+      </c>
+      <c r="I97" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2340,8 +5049,17 @@
       <c r="C98" s="1">
         <v>29899</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>377</v>
+      </c>
+      <c r="H98" t="s">
+        <v>647</v>
+      </c>
+      <c r="I98" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2351,8 +5069,17 @@
       <c r="C99" s="1">
         <v>73363</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>378</v>
+      </c>
+      <c r="H99" t="s">
+        <v>648</v>
+      </c>
+      <c r="I99" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2362,8 +5089,17 @@
       <c r="C100" s="1">
         <v>87286</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>379</v>
+      </c>
+      <c r="H100" t="s">
+        <v>649</v>
+      </c>
+      <c r="I100" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2373,8 +5109,17 @@
       <c r="C101" s="1">
         <v>33990</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>380</v>
+      </c>
+      <c r="H101" t="s">
+        <v>650</v>
+      </c>
+      <c r="I101" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2384,8 +5129,17 @@
       <c r="C102" s="1">
         <v>71850</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>381</v>
+      </c>
+      <c r="H102" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2395,8 +5149,17 @@
       <c r="C103" s="1">
         <v>114389</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>382</v>
+      </c>
+      <c r="H103" t="s">
+        <v>652</v>
+      </c>
+      <c r="I103" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2406,8 +5169,17 @@
       <c r="C104" s="1">
         <v>55000</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>383</v>
+      </c>
+      <c r="H104" t="s">
+        <v>653</v>
+      </c>
+      <c r="I104" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2417,8 +5189,17 @@
       <c r="C105" s="1">
         <v>38450</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>384</v>
+      </c>
+      <c r="H105" t="s">
+        <v>654</v>
+      </c>
+      <c r="I105" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2428,8 +5209,17 @@
       <c r="C106" s="1">
         <v>44700</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>385</v>
+      </c>
+      <c r="H106" t="s">
+        <v>655</v>
+      </c>
+      <c r="I106" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2439,8 +5229,17 @@
       <c r="C107" s="1">
         <v>36950</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>386</v>
+      </c>
+      <c r="H107" t="s">
+        <v>656</v>
+      </c>
+      <c r="I107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2450,8 +5249,17 @@
       <c r="C108" s="1">
         <v>41490</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>387</v>
+      </c>
+      <c r="H108" t="s">
+        <v>558</v>
+      </c>
+      <c r="I108" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2461,8 +5269,17 @@
       <c r="C109" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>388</v>
+      </c>
+      <c r="H109" t="s">
+        <v>657</v>
+      </c>
+      <c r="I109" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2472,8 +5289,17 @@
       <c r="C110" s="1">
         <v>46800</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>389</v>
+      </c>
+      <c r="H110" t="s">
+        <v>658</v>
+      </c>
+      <c r="I110" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2483,8 +5309,17 @@
       <c r="C111" s="1">
         <v>54980</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>390</v>
+      </c>
+      <c r="H111" t="s">
+        <v>659</v>
+      </c>
+      <c r="I111" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2494,8 +5329,17 @@
       <c r="C112" s="1">
         <v>70800</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>391</v>
+      </c>
+      <c r="H112" t="s">
+        <v>660</v>
+      </c>
+      <c r="I112" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2505,8 +5349,17 @@
       <c r="C113" s="1">
         <v>134214</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>392</v>
+      </c>
+      <c r="H113" t="s">
+        <v>661</v>
+      </c>
+      <c r="I113" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2516,8 +5369,17 @@
       <c r="C114" s="1">
         <v>103827</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>393</v>
+      </c>
+      <c r="H114" t="s">
+        <v>662</v>
+      </c>
+      <c r="I114" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2527,8 +5389,17 @@
       <c r="C115" s="1">
         <v>89351</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>394</v>
+      </c>
+      <c r="H115" t="s">
+        <v>577</v>
+      </c>
+      <c r="I115" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2538,8 +5409,17 @@
       <c r="C116" s="1">
         <v>37990</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>395</v>
+      </c>
+      <c r="H116" t="s">
+        <v>663</v>
+      </c>
+      <c r="I116" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2549,8 +5429,17 @@
       <c r="C117" s="1">
         <v>50777</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>396</v>
+      </c>
+      <c r="H117" t="s">
+        <v>664</v>
+      </c>
+      <c r="I117" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2560,8 +5449,17 @@
       <c r="C118" s="1">
         <v>69200</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>397</v>
+      </c>
+      <c r="H118" t="s">
+        <v>665</v>
+      </c>
+      <c r="I118" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2571,8 +5469,17 @@
       <c r="C119" s="1">
         <v>44625</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>398</v>
+      </c>
+      <c r="H119" t="s">
+        <v>666</v>
+      </c>
+      <c r="I119" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2582,8 +5489,17 @@
       <c r="C120" s="1">
         <v>46335</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>399</v>
+      </c>
+      <c r="H120" t="s">
+        <v>667</v>
+      </c>
+      <c r="I120" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2593,8 +5509,17 @@
       <c r="C121" s="1">
         <v>48190</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>400</v>
+      </c>
+      <c r="H121" t="s">
+        <v>668</v>
+      </c>
+      <c r="I121" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2604,8 +5529,17 @@
       <c r="C122" s="1">
         <v>52205</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>401</v>
+      </c>
+      <c r="H122" t="s">
+        <v>669</v>
+      </c>
+      <c r="I122" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2615,8 +5549,17 @@
       <c r="C123" s="1">
         <v>47490</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H123" t="s">
+        <v>670</v>
+      </c>
+      <c r="I123" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2626,8 +5569,17 @@
       <c r="C124" s="1">
         <v>95074</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>403</v>
+      </c>
+      <c r="H124" t="s">
+        <v>671</v>
+      </c>
+      <c r="I124" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2637,8 +5589,17 @@
       <c r="C125" s="1">
         <v>109777</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>404</v>
+      </c>
+      <c r="H125" t="s">
+        <v>672</v>
+      </c>
+      <c r="I125" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2648,8 +5609,17 @@
       <c r="C126" s="1">
         <v>51900</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>405</v>
+      </c>
+      <c r="H126" t="s">
+        <v>673</v>
+      </c>
+      <c r="I126" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2659,8 +5629,17 @@
       <c r="C127">
         <v>54.341999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>406</v>
+      </c>
+      <c r="H127" t="s">
+        <v>674</v>
+      </c>
+      <c r="I127" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2670,8 +5649,17 @@
       <c r="C128" s="1">
         <v>47900</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>407</v>
+      </c>
+      <c r="H128" t="s">
+        <v>675</v>
+      </c>
+      <c r="I128" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2681,8 +5669,17 @@
       <c r="C129" s="1">
         <v>53746</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H129" t="s">
+        <v>676</v>
+      </c>
+      <c r="I129" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2692,8 +5689,17 @@
       <c r="C130" s="1">
         <v>56424</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>409</v>
+      </c>
+      <c r="H130" t="s">
+        <v>677</v>
+      </c>
+      <c r="I130" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2703,8 +5709,17 @@
       <c r="C131" s="1">
         <v>56455</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>410</v>
+      </c>
+      <c r="H131" t="s">
+        <v>678</v>
+      </c>
+      <c r="I131" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2714,8 +5729,17 @@
       <c r="C132" s="1">
         <v>61960</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>411</v>
+      </c>
+      <c r="H132" t="s">
+        <v>679</v>
+      </c>
+      <c r="I132" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2725,8 +5749,17 @@
       <c r="C133" s="1">
         <v>49020</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>412</v>
+      </c>
+      <c r="H133" t="s">
+        <v>669</v>
+      </c>
+      <c r="I133" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2736,8 +5769,17 @@
       <c r="C134" s="1">
         <v>47490</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>413</v>
+      </c>
+      <c r="H134" t="s">
+        <v>680</v>
+      </c>
+      <c r="I134" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2747,8 +5789,17 @@
       <c r="C135" s="1">
         <v>39563</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>414</v>
+      </c>
+      <c r="H135" t="s">
+        <v>681</v>
+      </c>
+      <c r="I135" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2758,8 +5809,17 @@
       <c r="C136" s="1">
         <v>155009</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>415</v>
+      </c>
+      <c r="H136" t="s">
+        <v>682</v>
+      </c>
+      <c r="I136" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2769,8 +5829,17 @@
       <c r="C137" s="1">
         <v>48990</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>416</v>
+      </c>
+      <c r="H137" t="s">
+        <v>683</v>
+      </c>
+      <c r="I137" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2780,8 +5849,17 @@
       <c r="C138" s="1">
         <v>47550</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>417</v>
+      </c>
+      <c r="H138" t="s">
+        <v>684</v>
+      </c>
+      <c r="I138" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2791,8 +5869,17 @@
       <c r="C139" s="1">
         <v>55900</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>418</v>
+      </c>
+      <c r="H139" t="s">
+        <v>685</v>
+      </c>
+      <c r="I139" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2802,8 +5889,17 @@
       <c r="C140" s="1">
         <v>59900</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>419</v>
+      </c>
+      <c r="H140" t="s">
+        <v>686</v>
+      </c>
+      <c r="I140" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2813,8 +5909,17 @@
       <c r="C141" s="1">
         <v>109819</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>420</v>
+      </c>
+      <c r="H141" t="s">
+        <v>611</v>
+      </c>
+      <c r="I141" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2824,8 +5929,17 @@
       <c r="C142" s="1">
         <v>59200</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>421</v>
+      </c>
+      <c r="H142" t="s">
+        <v>687</v>
+      </c>
+      <c r="I142" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2835,8 +5949,17 @@
       <c r="C143" s="1">
         <v>67300</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>422</v>
+      </c>
+      <c r="H143" t="s">
+        <v>688</v>
+      </c>
+      <c r="I143" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2846,8 +5969,17 @@
       <c r="C144" s="1">
         <v>54995</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>423</v>
+      </c>
+      <c r="H144" t="s">
+        <v>689</v>
+      </c>
+      <c r="I144" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2857,8 +5989,17 @@
       <c r="C145" s="1">
         <v>49050</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>424</v>
+      </c>
+      <c r="H145" t="s">
+        <v>690</v>
+      </c>
+      <c r="I145" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2868,8 +6009,17 @@
       <c r="C146" s="1">
         <v>53255</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>425</v>
+      </c>
+      <c r="H146" t="s">
+        <v>691</v>
+      </c>
+      <c r="I146" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2879,8 +6029,17 @@
       <c r="C147" s="1">
         <v>37995</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>426</v>
+      </c>
+      <c r="H147" t="s">
+        <v>692</v>
+      </c>
+      <c r="I147" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2890,8 +6049,17 @@
       <c r="C148" s="1">
         <v>52550</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>427</v>
+      </c>
+      <c r="H148" t="s">
+        <v>693</v>
+      </c>
+      <c r="I148" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2901,8 +6069,17 @@
       <c r="C149" s="1">
         <v>85000</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>428</v>
+      </c>
+      <c r="H149" t="s">
+        <v>694</v>
+      </c>
+      <c r="I149" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2912,8 +6089,17 @@
       <c r="C150" s="1">
         <v>57390</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>429</v>
+      </c>
+      <c r="H150" t="s">
+        <v>695</v>
+      </c>
+      <c r="I150" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2923,8 +6109,17 @@
       <c r="C151" s="1">
         <v>40490</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>430</v>
+      </c>
+      <c r="H151" t="s">
+        <v>696</v>
+      </c>
+      <c r="I151" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2934,8 +6129,17 @@
       <c r="C152" s="1">
         <v>53978</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>431</v>
+      </c>
+      <c r="H152" t="s">
+        <v>632</v>
+      </c>
+      <c r="I152" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2945,8 +6149,17 @@
       <c r="C153" s="1">
         <v>46990</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>432</v>
+      </c>
+      <c r="H153" t="s">
+        <v>697</v>
+      </c>
+      <c r="I153" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2956,8 +6169,17 @@
       <c r="C154" s="1">
         <v>115341</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>433</v>
+      </c>
+      <c r="H154" t="s">
+        <v>698</v>
+      </c>
+      <c r="I154" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2967,8 +6189,17 @@
       <c r="C155" s="1">
         <v>56370</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>434</v>
+      </c>
+      <c r="H155" t="s">
+        <v>699</v>
+      </c>
+      <c r="I155" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2978,8 +6209,17 @@
       <c r="C156" s="1">
         <v>61495</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>435</v>
+      </c>
+      <c r="H156" t="s">
+        <v>700</v>
+      </c>
+      <c r="I156" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2989,8 +6229,17 @@
       <c r="C157" s="1">
         <v>63490</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>436</v>
+      </c>
+      <c r="H157" t="s">
+        <v>701</v>
+      </c>
+      <c r="I157" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3000,8 +6249,17 @@
       <c r="C158" s="1">
         <v>69950</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>437</v>
+      </c>
+      <c r="H158" t="s">
+        <v>701</v>
+      </c>
+      <c r="I158" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3011,8 +6269,17 @@
       <c r="C159" s="1">
         <v>69950</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>438</v>
+      </c>
+      <c r="H159" t="s">
+        <v>702</v>
+      </c>
+      <c r="I159" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3022,8 +6289,17 @@
       <c r="C160" s="1">
         <v>135166</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>439</v>
+      </c>
+      <c r="H160" t="s">
+        <v>703</v>
+      </c>
+      <c r="I160" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3033,8 +6309,17 @@
       <c r="C161" s="1">
         <v>114222</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>440</v>
+      </c>
+      <c r="H161" t="s">
+        <v>704</v>
+      </c>
+      <c r="I161" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3044,8 +6329,17 @@
       <c r="C162" s="1">
         <v>98514</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>441</v>
+      </c>
+      <c r="H162" t="s">
+        <v>644</v>
+      </c>
+      <c r="I162" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3055,8 +6349,17 @@
       <c r="C163" s="1">
         <v>50990</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>442</v>
+      </c>
+      <c r="H163" t="s">
+        <v>705</v>
+      </c>
+      <c r="I163" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3066,8 +6369,17 @@
       <c r="C164" s="1">
         <v>62900</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>443</v>
+      </c>
+      <c r="H164" t="s">
+        <v>706</v>
+      </c>
+      <c r="I164" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3077,8 +6389,17 @@
       <c r="C165" s="1">
         <v>77300</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>444</v>
+      </c>
+      <c r="H165" t="s">
+        <v>707</v>
+      </c>
+      <c r="I165" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3088,8 +6409,17 @@
       <c r="C166" s="1">
         <v>41560</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>445</v>
+      </c>
+      <c r="H166" t="s">
+        <v>708</v>
+      </c>
+      <c r="I166" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3099,8 +6429,17 @@
       <c r="C167" s="1">
         <v>57000</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>446</v>
+      </c>
+      <c r="H167" t="s">
+        <v>709</v>
+      </c>
+      <c r="I167" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3110,8 +6449,17 @@
       <c r="C168" s="1">
         <v>55519</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>447</v>
+      </c>
+      <c r="H168" t="s">
+        <v>710</v>
+      </c>
+      <c r="I168" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3121,8 +6469,17 @@
       <c r="C169" s="1">
         <v>58197</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>448</v>
+      </c>
+      <c r="H169" t="s">
+        <v>711</v>
+      </c>
+      <c r="I169" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3132,8 +6489,17 @@
       <c r="C170" s="1">
         <v>57900</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>449</v>
+      </c>
+      <c r="H170" t="s">
+        <v>712</v>
+      </c>
+      <c r="I170" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3143,8 +6509,17 @@
       <c r="C171" s="1">
         <v>53990</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>450</v>
+      </c>
+      <c r="H171" t="s">
+        <v>713</v>
+      </c>
+      <c r="I171" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3154,8 +6529,17 @@
       <c r="C172" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>451</v>
+      </c>
+      <c r="H172" t="s">
+        <v>714</v>
+      </c>
+      <c r="I172" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3165,8 +6549,17 @@
       <c r="C173" s="1">
         <v>115000</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>452</v>
+      </c>
+      <c r="H173" t="s">
+        <v>715</v>
+      </c>
+      <c r="I173" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3176,8 +6569,17 @@
       <c r="C174" s="1">
         <v>135900</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>453</v>
+      </c>
+      <c r="H174" t="s">
+        <v>716</v>
+      </c>
+      <c r="I174" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3187,8 +6589,17 @@
       <c r="C175" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>454</v>
+      </c>
+      <c r="H175" t="s">
+        <v>717</v>
+      </c>
+      <c r="I175" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3198,8 +6609,17 @@
       <c r="C176" s="1">
         <v>45080</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>455</v>
+      </c>
+      <c r="H176" t="s">
+        <v>718</v>
+      </c>
+      <c r="I176" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3209,8 +6629,17 @@
       <c r="C177" s="1">
         <v>69990</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>456</v>
+      </c>
+      <c r="H177" t="s">
+        <v>719</v>
+      </c>
+      <c r="I177" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3220,8 +6649,17 @@
       <c r="C178" s="1">
         <v>71200</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>457</v>
+      </c>
+      <c r="H178" t="s">
+        <v>720</v>
+      </c>
+      <c r="I178" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3231,8 +6669,17 @@
       <c r="C179" s="1">
         <v>57490</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>458</v>
+      </c>
+      <c r="H179" t="s">
+        <v>721</v>
+      </c>
+      <c r="I179" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3242,8 +6689,17 @@
       <c r="C180" s="1">
         <v>156348</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>459</v>
+      </c>
+      <c r="H180" t="s">
+        <v>722</v>
+      </c>
+      <c r="I180" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3253,8 +6709,17 @@
       <c r="C181" s="1">
         <v>87550</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>460</v>
+      </c>
+      <c r="H181" t="s">
+        <v>723</v>
+      </c>
+      <c r="I181" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3264,8 +6729,17 @@
       <c r="C182" s="1">
         <v>110000</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>461</v>
+      </c>
+      <c r="H182" t="s">
+        <v>724</v>
+      </c>
+      <c r="I182" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3275,8 +6749,17 @@
       <c r="C183" s="1">
         <v>76650</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>462</v>
+      </c>
+      <c r="H183" t="s">
+        <v>725</v>
+      </c>
+      <c r="I183" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3286,8 +6769,17 @@
       <c r="C184" s="1">
         <v>106050</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>463</v>
+      </c>
+      <c r="H184" t="s">
+        <v>726</v>
+      </c>
+      <c r="I184" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3297,8 +6789,17 @@
       <c r="C185" s="1">
         <v>71010</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>464</v>
+      </c>
+      <c r="H185" t="s">
+        <v>664</v>
+      </c>
+      <c r="I185" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3308,8 +6809,17 @@
       <c r="C186" s="1">
         <v>69200</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>465</v>
+      </c>
+      <c r="H186" t="s">
+        <v>727</v>
+      </c>
+      <c r="I186" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3319,8 +6829,17 @@
       <c r="C187" s="1">
         <v>48850</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>466</v>
+      </c>
+      <c r="H187" t="s">
+        <v>716</v>
+      </c>
+      <c r="I187" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3330,8 +6849,17 @@
       <c r="C188" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>467</v>
+      </c>
+      <c r="H188" t="s">
+        <v>728</v>
+      </c>
+      <c r="I188" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3341,8 +6869,17 @@
       <c r="C189" s="1">
         <v>95990</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>468</v>
+      </c>
+      <c r="H189" t="s">
+        <v>729</v>
+      </c>
+      <c r="I189" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3352,8 +6889,17 @@
       <c r="C190" s="1">
         <v>157300</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>469</v>
+      </c>
+      <c r="H190" t="s">
+        <v>730</v>
+      </c>
+      <c r="I190" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3363,8 +6909,17 @@
       <c r="C191" s="1">
         <v>77200</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>470</v>
+      </c>
+      <c r="H191" t="s">
+        <v>731</v>
+      </c>
+      <c r="I191" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3374,8 +6929,17 @@
       <c r="C192" s="1">
         <v>66490</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>471</v>
+      </c>
+      <c r="H192" t="s">
+        <v>732</v>
+      </c>
+      <c r="I192" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3385,8 +6949,17 @@
       <c r="C193" s="1">
         <v>86850</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>472</v>
+      </c>
+      <c r="H193" t="s">
+        <v>573</v>
+      </c>
+      <c r="I193" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3396,8 +6969,17 @@
       <c r="C194" s="1">
         <v>120000</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>473</v>
+      </c>
+      <c r="H194" t="s">
+        <v>733</v>
+      </c>
+      <c r="I194" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3407,8 +6989,17 @@
       <c r="C195" s="1">
         <v>100100</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>474</v>
+      </c>
+      <c r="H195" t="s">
+        <v>734</v>
+      </c>
+      <c r="I195" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3418,8 +7009,17 @@
       <c r="C196" s="1">
         <v>189668</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>475</v>
+      </c>
+      <c r="H196" t="s">
+        <v>735</v>
+      </c>
+      <c r="I196" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3429,8 +7029,17 @@
       <c r="C197" s="1">
         <v>157776</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>476</v>
+      </c>
+      <c r="H197" t="s">
+        <v>736</v>
+      </c>
+      <c r="I197" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3440,8 +7049,17 @@
       <c r="C198" s="1">
         <v>95850</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>477</v>
+      </c>
+      <c r="H198" t="s">
+        <v>737</v>
+      </c>
+      <c r="I198" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3451,8 +7069,17 @@
       <c r="C199" s="1">
         <v>146050</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>478</v>
+      </c>
+      <c r="H199" t="s">
+        <v>738</v>
+      </c>
+      <c r="I199" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3462,8 +7089,17 @@
       <c r="C200" s="1">
         <v>141970</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>479</v>
+      </c>
+      <c r="H200" t="s">
+        <v>687</v>
+      </c>
+      <c r="I200" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3473,8 +7109,17 @@
       <c r="C201" s="1">
         <v>67300</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>480</v>
+      </c>
+      <c r="H201" t="s">
+        <v>739</v>
+      </c>
+      <c r="I201" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3484,8 +7129,17 @@
       <c r="C202" s="1">
         <v>190620</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>481</v>
+      </c>
+      <c r="H202" t="s">
+        <v>740</v>
+      </c>
+      <c r="I202" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3495,8 +7149,17 @@
       <c r="C203" s="1">
         <v>135000</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>482</v>
+      </c>
+      <c r="H203" t="s">
+        <v>741</v>
+      </c>
+      <c r="I203" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3506,8 +7169,17 @@
       <c r="C204" s="1">
         <v>86200</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>483</v>
+      </c>
+      <c r="H204" t="s">
+        <v>742</v>
+      </c>
+      <c r="I204" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3517,8 +7189,17 @@
       <c r="C205" s="1">
         <v>85300</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>484</v>
+      </c>
+      <c r="H205" t="s">
+        <v>743</v>
+      </c>
+      <c r="I205" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3528,8 +7209,17 @@
       <c r="C206" s="1">
         <v>57650</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>485</v>
+      </c>
+      <c r="H206" t="s">
+        <v>744</v>
+      </c>
+      <c r="I206" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3539,8 +7229,17 @@
       <c r="C207" s="1">
         <v>74400</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>486</v>
+      </c>
+      <c r="H207" t="s">
+        <v>745</v>
+      </c>
+      <c r="I207" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3550,8 +7249,17 @@
       <c r="C208" s="1">
         <v>66069</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>487</v>
+      </c>
+      <c r="H208" t="s">
+        <v>746</v>
+      </c>
+      <c r="I208" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3561,8 +7269,17 @@
       <c r="C209" s="1">
         <v>136100</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>488</v>
+      </c>
+      <c r="H209" t="s">
+        <v>747</v>
+      </c>
+      <c r="I209" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3572,8 +7289,17 @@
       <c r="C210" s="1">
         <v>191096</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>489</v>
+      </c>
+      <c r="H210" t="s">
+        <v>748</v>
+      </c>
+      <c r="I210" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3583,8 +7309,17 @@
       <c r="C211" s="1">
         <v>88600</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>490</v>
+      </c>
+      <c r="H211" t="s">
+        <v>749</v>
+      </c>
+      <c r="I211" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3594,8 +7329,17 @@
       <c r="C212" s="1">
         <v>110658</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>491</v>
+      </c>
+      <c r="H212" t="s">
+        <v>750</v>
+      </c>
+      <c r="I212" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3605,8 +7349,17 @@
       <c r="C213" s="1">
         <v>37800</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>492</v>
+      </c>
+      <c r="H213" t="s">
+        <v>751</v>
+      </c>
+      <c r="I213" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3616,8 +7369,17 @@
       <c r="C214" s="1">
         <v>400000</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>493</v>
+      </c>
+      <c r="H214" t="s">
+        <v>752</v>
+      </c>
+      <c r="I214" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3627,8 +7389,17 @@
       <c r="C215" s="1">
         <v>56150</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>494</v>
+      </c>
+      <c r="H215" t="s">
+        <v>753</v>
+      </c>
+      <c r="I215" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3638,8 +7409,17 @@
       <c r="C216" s="1">
         <v>76815</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>495</v>
+      </c>
+      <c r="H216" t="s">
+        <v>754</v>
+      </c>
+      <c r="I216" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3649,8 +7429,17 @@
       <c r="C217" s="1">
         <v>114446</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>496</v>
+      </c>
+      <c r="H217" t="s">
+        <v>755</v>
+      </c>
+      <c r="I217" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3660,8 +7449,17 @@
       <c r="C218" s="1">
         <v>135291</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>497</v>
+      </c>
+      <c r="H218" t="s">
+        <v>756</v>
+      </c>
+      <c r="I218" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3671,8 +7469,17 @@
       <c r="C219" s="1">
         <v>43050</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>498</v>
+      </c>
+      <c r="H219" t="s">
+        <v>757</v>
+      </c>
+      <c r="I219" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3682,8 +7489,17 @@
       <c r="C220" s="1">
         <v>37790</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>499</v>
+      </c>
+      <c r="H220" t="s">
+        <v>758</v>
+      </c>
+      <c r="I220" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3693,8 +7509,17 @@
       <c r="C221" s="1">
         <v>41240</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>500</v>
+      </c>
+      <c r="H221" t="s">
+        <v>759</v>
+      </c>
+      <c r="I221" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3704,8 +7529,17 @@
       <c r="C222" s="1">
         <v>40150</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>501</v>
+      </c>
+      <c r="H222" t="s">
+        <v>714</v>
+      </c>
+      <c r="I222" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3715,8 +7549,17 @@
       <c r="C223" s="1">
         <v>115000</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>502</v>
+      </c>
+      <c r="H223" t="s">
+        <v>760</v>
+      </c>
+      <c r="I223" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3726,8 +7569,17 @@
       <c r="C224" s="1">
         <v>66000</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>503</v>
+      </c>
+      <c r="H224" t="s">
+        <v>761</v>
+      </c>
+      <c r="I224" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3737,8 +7589,17 @@
       <c r="C225" s="1">
         <v>95200</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>504</v>
+      </c>
+      <c r="H225" t="s">
+        <v>762</v>
+      </c>
+      <c r="I225" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3748,8 +7609,17 @@
       <c r="C226" s="1">
         <v>44750</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H226" t="s">
+        <v>763</v>
+      </c>
+      <c r="I226" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3759,8 +7629,17 @@
       <c r="C227" s="1">
         <v>43640</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>506</v>
+      </c>
+      <c r="H227" t="s">
+        <v>764</v>
+      </c>
+      <c r="I227" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3770,8 +7649,17 @@
       <c r="C228" s="1">
         <v>42440</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>507</v>
+      </c>
+      <c r="H228" t="s">
+        <v>765</v>
+      </c>
+      <c r="I228" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3781,8 +7669,17 @@
       <c r="C229" s="1">
         <v>64581</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>508</v>
+      </c>
+      <c r="H229" t="s">
+        <v>766</v>
+      </c>
+      <c r="I229" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3792,8 +7689,17 @@
       <c r="C230" s="1">
         <v>105550</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>509</v>
+      </c>
+      <c r="H230" t="s">
+        <v>767</v>
+      </c>
+      <c r="I230" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3803,8 +7709,17 @@
       <c r="C231" s="1">
         <v>150990</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G231" t="s">
+        <v>510</v>
+      </c>
+      <c r="H231" t="s">
+        <v>723</v>
+      </c>
+      <c r="I231" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3814,8 +7729,17 @@
       <c r="C232" s="1">
         <v>110000</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>511</v>
+      </c>
+      <c r="H232" t="s">
+        <v>768</v>
+      </c>
+      <c r="I232" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3825,8 +7749,17 @@
       <c r="C233" s="1">
         <v>71400</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G233" t="s">
+        <v>512</v>
+      </c>
+      <c r="H233" t="s">
+        <v>769</v>
+      </c>
+      <c r="I233" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3836,8 +7769,17 @@
       <c r="C234" s="1">
         <v>110650</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>513</v>
+      </c>
+      <c r="H234" t="s">
+        <v>770</v>
+      </c>
+      <c r="I234" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3847,8 +7789,17 @@
       <c r="C235" s="1">
         <v>51940</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G235" t="s">
+        <v>514</v>
+      </c>
+      <c r="H235" t="s">
+        <v>771</v>
+      </c>
+      <c r="I235" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -3858,8 +7809,17 @@
       <c r="C236" s="1">
         <v>53640</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G236" t="s">
+        <v>515</v>
+      </c>
+      <c r="H236" t="s">
+        <v>772</v>
+      </c>
+      <c r="I236" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -3869,8 +7829,17 @@
       <c r="C237" s="1">
         <v>50992</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>516</v>
+      </c>
+      <c r="H237" t="s">
+        <v>773</v>
+      </c>
+      <c r="I237" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -3880,8 +7849,17 @@
       <c r="C238" s="1">
         <v>63250</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>517</v>
+      </c>
+      <c r="H238" t="s">
+        <v>770</v>
+      </c>
+      <c r="I238" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -3891,8 +7869,17 @@
       <c r="C239" s="1">
         <v>51940</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>518</v>
+      </c>
+      <c r="H239" t="s">
+        <v>771</v>
+      </c>
+      <c r="I239" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -3902,8 +7889,17 @@
       <c r="C240" s="1">
         <v>53640</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G240" t="s">
+        <v>519</v>
+      </c>
+      <c r="H240" t="s">
+        <v>774</v>
+      </c>
+      <c r="I240" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -3913,8 +7909,17 @@
       <c r="C241" s="1">
         <v>55990</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>520</v>
+      </c>
+      <c r="H241" t="s">
+        <v>775</v>
+      </c>
+      <c r="I241" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -3924,8 +7929,17 @@
       <c r="C242" s="1">
         <v>83590</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>521</v>
+      </c>
+      <c r="H242" t="s">
+        <v>776</v>
+      </c>
+      <c r="I242" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -3935,8 +7949,17 @@
       <c r="C243" s="1">
         <v>94590</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>522</v>
+      </c>
+      <c r="H243" t="s">
+        <v>777</v>
+      </c>
+      <c r="I243" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -3946,8 +7969,17 @@
       <c r="C244" s="1">
         <v>57940</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G244" t="s">
+        <v>523</v>
+      </c>
+      <c r="H244" t="s">
+        <v>778</v>
+      </c>
+      <c r="I244" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -3957,8 +7989,17 @@
       <c r="C245" s="1">
         <v>59640</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>524</v>
+      </c>
+      <c r="H245" t="s">
+        <v>779</v>
+      </c>
+      <c r="I245" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -3968,8 +8009,17 @@
       <c r="C246" s="1">
         <v>56942</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G246" t="s">
+        <v>525</v>
+      </c>
+      <c r="H246" t="s">
+        <v>780</v>
+      </c>
+      <c r="I246" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -3979,8 +8029,17 @@
       <c r="C247" s="1">
         <v>69250</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>526</v>
+      </c>
+      <c r="H247" t="s">
+        <v>777</v>
+      </c>
+      <c r="I247" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -3990,8 +8049,17 @@
       <c r="C248" s="1">
         <v>57940</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G248" t="s">
+        <v>527</v>
+      </c>
+      <c r="H248" t="s">
+        <v>778</v>
+      </c>
+      <c r="I248" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4001,8 +8069,17 @@
       <c r="C249" s="1">
         <v>59640</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>528</v>
+      </c>
+      <c r="H249" t="s">
+        <v>781</v>
+      </c>
+      <c r="I249" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4012,8 +8089,17 @@
       <c r="C250" s="1">
         <v>61990</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G250" t="s">
+        <v>529</v>
+      </c>
+      <c r="H250" t="s">
+        <v>782</v>
+      </c>
+      <c r="I250" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4023,8 +8109,17 @@
       <c r="C251" s="1">
         <v>64530</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G251" t="s">
+        <v>530</v>
+      </c>
+      <c r="H251" t="s">
+        <v>783</v>
+      </c>
+      <c r="I251" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4034,8 +8129,17 @@
       <c r="C252" s="1">
         <v>52730</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G252" t="s">
+        <v>531</v>
+      </c>
+      <c r="H252" t="s">
+        <v>784</v>
+      </c>
+      <c r="I252" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4045,8 +8149,17 @@
       <c r="C253" s="1">
         <v>54430</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>532</v>
+      </c>
+      <c r="H253" t="s">
+        <v>785</v>
+      </c>
+      <c r="I253" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4056,8 +8169,17 @@
       <c r="C254" s="1">
         <v>51825</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>533</v>
+      </c>
+      <c r="H254" t="s">
+        <v>786</v>
+      </c>
+      <c r="I254" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4067,8 +8189,17 @@
       <c r="C255" s="1">
         <v>64075</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G255" t="s">
+        <v>534</v>
+      </c>
+      <c r="H255" t="s">
+        <v>783</v>
+      </c>
+      <c r="I255" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4078,8 +8209,17 @@
       <c r="C256" s="1">
         <v>52730</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G256" t="s">
+        <v>535</v>
+      </c>
+      <c r="H256" t="s">
+        <v>784</v>
+      </c>
+      <c r="I256" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4089,8 +8229,17 @@
       <c r="C257" s="1">
         <v>54430</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G257" t="s">
+        <v>536</v>
+      </c>
+      <c r="H257" t="s">
+        <v>787</v>
+      </c>
+      <c r="I257" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4100,8 +8249,17 @@
       <c r="C258" s="1">
         <v>58845</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G258" t="s">
+        <v>537</v>
+      </c>
+      <c r="H258" t="s">
+        <v>788</v>
+      </c>
+      <c r="I258" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4111,8 +8269,17 @@
       <c r="C259" s="1">
         <v>68545</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G259" t="s">
+        <v>538</v>
+      </c>
+      <c r="H259" t="s">
+        <v>789</v>
+      </c>
+      <c r="I259" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4122,8 +8289,17 @@
       <c r="C260" s="1">
         <v>56990</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G260" t="s">
+        <v>539</v>
+      </c>
+      <c r="H260" t="s">
+        <v>790</v>
+      </c>
+      <c r="I260" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4133,8 +8309,17 @@
       <c r="C261" s="1">
         <v>58730</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>540</v>
+      </c>
+      <c r="H261" t="s">
+        <v>791</v>
+      </c>
+      <c r="I261" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4144,118 +8329,217 @@
       <c r="C262" s="1">
         <v>60430</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G262" t="s">
+        <v>541</v>
+      </c>
+      <c r="H262" t="s">
+        <v>792</v>
+      </c>
+      <c r="I262" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>263</v>
       </c>
       <c r="B263">
         <v>262</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="2">
         <v>57775</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G263" t="s">
+        <v>542</v>
+      </c>
+      <c r="H263" t="s">
+        <v>793</v>
+      </c>
+      <c r="I263" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>264</v>
       </c>
       <c r="B264">
         <v>262</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="2">
         <v>70075</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G264" t="s">
+        <v>543</v>
+      </c>
+      <c r="H264" t="s">
+        <v>790</v>
+      </c>
+      <c r="I264" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>265</v>
       </c>
       <c r="B265">
         <v>262</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="2">
         <v>58730</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G265" t="s">
+        <v>544</v>
+      </c>
+      <c r="H265" t="s">
+        <v>791</v>
+      </c>
+      <c r="I265" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>266</v>
       </c>
       <c r="B266">
         <v>262</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="2">
         <v>60430</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G266" t="s">
+        <v>545</v>
+      </c>
+      <c r="H266" t="s">
+        <v>794</v>
+      </c>
+      <c r="I266" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>267</v>
       </c>
       <c r="B267">
         <v>262</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="2">
         <v>60045</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G267" t="s">
+        <v>546</v>
+      </c>
+      <c r="H267" t="s">
+        <v>795</v>
+      </c>
+      <c r="I267" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>268</v>
       </c>
       <c r="B268">
         <v>262</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="2">
         <v>69745</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G268" t="s">
+        <v>547</v>
+      </c>
+      <c r="H268" t="s">
+        <v>796</v>
+      </c>
+      <c r="I268" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>269</v>
       </c>
       <c r="B269">
         <v>262</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="2">
         <v>62990</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
+        <v>548</v>
+      </c>
+      <c r="H269" t="s">
+        <v>797</v>
+      </c>
+      <c r="I269" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>270</v>
       </c>
       <c r="B270">
         <v>262</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="2">
         <v>65385</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
+        <v>549</v>
+      </c>
+      <c r="H270" t="s">
+        <v>798</v>
+      </c>
+      <c r="I270" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>271</v>
       </c>
       <c r="B271">
         <v>286</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="2">
         <v>60678</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
+        <v>550</v>
+      </c>
+      <c r="H271" t="s">
+        <v>799</v>
+      </c>
+      <c r="I271" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>272</v>
       </c>
       <c r="B272">
         <v>290</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="2">
         <v>64248</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
+        <v>551</v>
+      </c>
+      <c r="H272" t="s">
+        <v>800</v>
+      </c>
+      <c r="I272" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4265,8 +8549,17 @@
       <c r="C273" s="1">
         <v>68056</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G273" t="s">
+        <v>552</v>
+      </c>
+      <c r="H273" t="s">
+        <v>801</v>
+      </c>
+      <c r="I273" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4276,19 +8569,37 @@
       <c r="C274" s="1">
         <v>68949</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
+        <v>553</v>
+      </c>
+      <c r="H274" t="s">
+        <v>802</v>
+      </c>
+      <c r="I274" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>275</v>
       </c>
       <c r="B275">
         <v>293</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="2">
         <v>61571</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
+        <v>554</v>
+      </c>
+      <c r="H275" t="s">
+        <v>803</v>
+      </c>
+      <c r="I275" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4298,8 +8609,17 @@
       <c r="C276" s="1">
         <v>72519</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>555</v>
+      </c>
+      <c r="H276" t="s">
+        <v>804</v>
+      </c>
+      <c r="I276" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4309,15 +8629,24 @@
       <c r="C277" s="1">
         <v>65140</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
+        <v>556</v>
+      </c>
+      <c r="H277" t="s">
+        <v>805</v>
+      </c>
+      <c r="I277" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>278</v>
       </c>
       <c r="B278">
         <v>295</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="2">
         <v>71626</v>
       </c>
     </row>

--- a/data_xls/cars_data.xlsx
+++ b/data_xls/cars_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurev\Desktop\Faks\3.letnik\MT\PROJEKTNA\StromGrupn\data_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09223B2D-9F70-449D-BB41-9A3F35D1A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E607F19-18D9-4441-95C3-5F55319C374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC148E1E-C769-416B-94DD-C87C09AA39D6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="894">
   <si>
     <t>Average</t>
   </si>
@@ -886,837 +886,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lightyear 0", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Standard Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Long Range Dual Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "XPENG P5", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 39 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Pure", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 24 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 24 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 24 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-208", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Corsa-e", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 42 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 42 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV40 130hp", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Touring", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mini Cooper SE", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Dacia Spring Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 64 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 42 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 110 kW - 45 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pure Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Twingo Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 130hp", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R110", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 150 kW - 58 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Abarth 500e Scorpionissima", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Dual Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 220hp", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo coupe", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive35", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Honda e Advance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R135", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 58 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Grand Touring", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 64 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 51 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition R", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4 X", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308 SW", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 39.2 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia Niro EV", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 77 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 4 Seats", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 5 Seats", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U6", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive40", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Long Range Dual Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 300", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 64 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "DS 3 Crossback E-Tense", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 60", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "JAC iEV7s", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf e+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "ORA Funky Cat First Edition", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Long Range", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 60", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo cabrio", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Plaid", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 35", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-2008 SUV", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Mokka-e", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mazda MX-30", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Standard Range", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Standard Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 500 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 580 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 100 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD HAN", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Single Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80x", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition P", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 40", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Sono Sion", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 500 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Standard Range", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 100 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX1 xDrive30", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 35", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Standard Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 M50", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 43 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Long Range", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis G80 Electrified Luxury", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD ATTO 3", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 63kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 53 4MATIC+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 40", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Premium", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range 2WD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 300 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 350 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 GTX", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV RS", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro 4MOTION", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X FWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U5", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS AMG 53 4MATIC+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1 Brabus", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus UX 300e", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 45 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 50 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX3", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Dual Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80x", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 GTX", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Seres 3", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "SsangYong Korando e-Motion", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 87kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Extreme", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean One", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Cross Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4 Cross Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR RWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive40", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Sport", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Ultra", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 300 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 350 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 50 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 45 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 500 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i7 xDrive60", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV RS", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Pure Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 GT", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER RWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Subaru Solterra AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 55 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Dual Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 50 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport Plus", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Pure Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus RZ 450e", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER AWD", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 43 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive50", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Cross Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 100 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT RS", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Plaid", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV70 Electrified Sport", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Sport Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 53 4MATIC+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E GT", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 55 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Twin Pure Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 50 quattro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQC 400 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX M60", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Cross Turismo", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Dual motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450+", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L1 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Rolls-Royce Spectre", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Twin Pure Electric", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Jaguar I-Pace EV400", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 580 4MATIC", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Standard 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L2 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron Sportback", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life XL 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo XL 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Long 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID. Buzz Pro", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre R", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD TANG", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor Performance", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 84 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 99 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 50 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso L 75 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 60 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 90 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Long", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Extra-Long", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 60 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Extra-Long", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 90 kWh", Value = "</t>
-  </si>
-  <si>
-    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Long", Value = "</t>
-  </si>
-  <si>
     <t>297.000;</t>
   </si>
   <si>
@@ -2723,6 +1892,840 @@
   </si>
   <si>
     <t>295" };</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lightyear 0 297.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Standard Range 2WD 43.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 52.965", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Long Range Dual Motor 62.465", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range 2WD 54.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "XPENG P5 48.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 39 kWh 36.400", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Pure 100.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 24 kWh 30.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 24 kWh 32.290", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 24 kWh 35.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-208 35.350", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Corsa-e 33.895", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Hatchback 42 kWh 34.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e 3+1 42 kWh 36.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV40 130hp 42.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Touring 120.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mini Cooper SE 35.700", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Dacia Spring Electric 22.550", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai Kona Electric 64 kWh 42.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat 500e Cabrio 42 kWh 37.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model 3 Performance 66.465", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 110 kW - 45 kWh 32.700", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pure Performance 37.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Twingo Electric 28.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 130hp 47.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308 44.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R110 36.840", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 150 kW - 58 kWh 39.370", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro 35.460", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro Performance 38.060", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Abarth 500e Scorpionissima 42.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf 33.400", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Dual Motor 105.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y 56.965", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Megane E-Tech EV60 220hp 46.600", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo coupe 21.940", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive35 56.500", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Honda e Advance 39.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Renault Zoe ZE50 R135 37.840", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 58 kWh 40.750", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 6 Long Range AWD 61.100", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Grand Touring 175.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450+ 109.551", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 64 kWh 35.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG4 Electric 51 kWh 31.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition R 218.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4 36.040", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-C4 X 38.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-308 SW 45.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 39.2 kWh 40.290", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia Niro EV 47.590", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "CUPRA Born 170 kW - 77 kWh 46.450", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 4 Seats 43.560", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.3 Pro S - 5 Seats 43.720", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U6 47.588", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 eDrive40 59.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Long Range Dual Motor 59.965", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350+ 70.626", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 300 66.402", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350 70.210", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia e-Soul 64 kWh 46.950", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80 47.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "DS 3 Crossback E-Tense 40.540", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 60 42.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 88.399", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "JAC iEV7s 29.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Leaf e+ 41.100", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "ORA Funky Cat First Edition 36.971", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 450 4MATIC 113.359", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Long Range 38.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 60 42.100", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart EQ fortwo cabrio 25.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model S Plaid 138.970", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus 94.123", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 75 kWh 82.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 35 46.700", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-2008 SUV 37.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Mokka-e 37.650", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mazda MX-30 35.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG MG5 Electric Standard Range 35.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Standard Range 2WD 46.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 500 4MATIC 125.378", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS 580 4MATIC 141.705", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET7 100 kWh 91.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 75 kWh 62.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD HAN 70.805", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Single Motor 50.995", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro 47.935", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 Pro Performance 48.970", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV 80x 49.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S 108.867", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lucid Air Dream Edition P 218.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 40 53.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range 2WD 50.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model Y Performance 68.465", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Sono Sion 29.899", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 350 4MATIC 73.363", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE 500 4MATIC 87.286", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Standard Range 33.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO ET5 100 kWh 71.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus 114.389", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX1 xDrive30 55.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure Performance 38.450", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 35 44.700", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pure 36.950", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1 41.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Standard Range 2WD 43.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80 46.800", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 Long Range AWD 54.980", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i4 M50 70.800", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS 134.214", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 43 4MATIC 103.827", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Sport Turismo 89.351", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG ZS EV Long Range 37.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250 50.777", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis G80 Electrified Luxury 69.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD ATTO 3 44.625", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro Performance 46.335", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro 48.190", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 250+ 52.205", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 63kWh 47.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Plus Sport Turismo 95.074", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE AMG 53 4MATIC+ 109.777", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 40 51.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Premium 54,342", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range 2WD 47.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 300 4MATIC 53.746", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQA 350 4MATIC 56.424", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.5 GTX 56.455", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq Coupe iV RS 61.960", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 Pro 4MOTION 49.020", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X FWD 47.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Aiways U5 39.563", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS AMG 53 4MATIC+ 155.009", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Smart #1 Brabus 48.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus UX 300e 47.550", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 45 quattro 55.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 Sportback e-tron 50 quattro 59.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Sport Turismo 109.819", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hyundai IONIQ 5 Long Range AWD 59.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX3 67.300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Dual Motor 54.995", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV 80x 49.050", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID.4 GTX 53.255", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Seres 3 37.995", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250 52.550", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350+ 85.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota bZ4X AWD 57.390", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "SsangYong Korando e-Motion 40.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 250+ 53.978", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R 46.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Plus Sport Turismo 115.341", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport 56.370", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 2 Long Range Performance 61.495", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya 87kWh 63.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Extreme 69.950", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean One 69.950", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan GTS Sport Turismo 135.166", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4S Cross Turismo 114.222", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan 4 Cross Turismo 98.514", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "MG Marvel R Performance 50.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR RWD 62.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive40 77.300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Sport 41.560", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fisker Ocean Ultra 57.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 300 4MATIC 55.519", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQB 350 4MATIC 58.197", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 50 quattro 57.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q4 e-tron 45 quattro 53.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 350 4MATIC 90.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV 500 4MATIC 115.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW i7 xDrive60 135.900", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Skoda Enyaq iV RS 60.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Pure Electric 45.080", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Kia EV6 GT 69.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER RWD 71.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Subaru Solterra AWD 57.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo 156.348", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 55 quattro 87.550", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Dual Motor 110.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron Sportback 50 quattro 76.650", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT quattro 106.050", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV60 Sport Plus 71.010", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E SR AWD 69.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Pure Electric 48.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lexus RZ 450e 60.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre 95.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Sport Turismo 157.300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E ER AWD 77.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh 66.490", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 75 kWh 86.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 43 4MATIC 120.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX xDrive50 100.100", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S 189.668", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo Cross Turismo 157.776", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "NIO EL7 100 kWh 95.850", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi e-tron GT RS 146.050", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Tesla Model X Plaid 141.970", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Genesis GV70 Electrified Sport 67.300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Sport Turismo 190.620", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQE SUV AMG 53 4MATIC+ 135.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Ford Mustang Mach-E GT 86.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 55 quattro 85.300", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo C40 Recharge Twin Pure Electric 57.650", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi Q8 e-tron 50 quattro 74.400", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQC 400 4MATIC 66.069", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BMW iX M60 136.100", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Porsche Taycan Turbo S Cross Turismo 191.096", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Dual motor 88.600", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450+ 110.658", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L1 50 kWh 37.800", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Rolls-Royce Spectre 400.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo XC40 Recharge Twin Pure Electric 56.150", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Jaguar I-Pace EV400 76.815", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 450 4MATIC 114.446", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQS SUV 580 4MATIC 135.291", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life 50 kWh 43.050", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo M 50 kWh 37.790", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Standard 50 kWh 41.240", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota Proace City Verso Electric L2 50 kWh 40.150", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron Sportback 115.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Nissan Ariya e-4ORCE 87kWh Performance 66.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Polestar 3 Long Range Performance 95.200", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Combo-e Life XL 50 kWh 44.750", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Berlingo XL 50 kWh 43.640", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Rifter Long 50 kWh 42.440", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volkswagen ID. Buzz Pro 64.581", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor 105.550", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Lotus Eletre R 150.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Audi SQ8 e-tron 110.000", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "BYD TANG 71.400", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Volvo EX90 Twin Motor Performance 110.650", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 50 kWh 51.940", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 50 kWh 53.640", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 50 kWh 50.992", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 50 kWh 63.250", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 50 kWh 51.940", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 50 kWh 53.640", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 50 kWh 55.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 84 kWh 83.590", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Hongqi E-HS9 99 kWh 94.590", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi M 75 kWh 57.940", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer M 75 kWh 59.640", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi M 75 kWh 56.942", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life M 75 kWh 69.250", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Standard 75 kWh 57.940", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Standard 75 kWh 59.640", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L2 75 kWh 61.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso M 75 kWh 64.530", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 50 kWh 52.730", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 50 kWh 54.430", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 50 kWh 51.825", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 50 kWh 64.075", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 50 kWh 52.730", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 50 kWh 54.430", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 50 kWh 58.845", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 50 kWh 68.545", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 50 kWh 56.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-Jumpy Combi XL 75 kWh 58.730", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Citroen e-SpaceTourer XL 75 kWh 60.430", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Vivaro-e Combi L 75 kWh 57.775", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Opel Zafira-e Life L 75 kWh 70.075", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Expert Combi Long 75 kWh 58.730", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Peugeot e-Traveller Long 75 kWh 60.430", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle M 75 kWh 60.045", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Shuttle L 75 kWh 69.745", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Fiat E-Ulysse L3 75 kWh 62.990", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Toyota PROACE Verso L 75 kWh 65.385", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 60 kWh 60.678", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Long 90 kWh 64.248", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Long 68.056", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 250 Extra-Long 68.949", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 60 kWh 61.571", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Extra-Long 72.519", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes eVito Tourer Extra-Long 90 kWh 65.140", Value = "</t>
+  </si>
+  <si>
+    <t>SelectListItem selectListItemA = new SelectListItem { Text = "Mercedes EQV 300 Long 71.626", Value = "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3089,7 +3092,7 @@
   <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,13 +3113,13 @@
         <v>279</v>
       </c>
       <c r="G1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1" t="s">
         <v>280</v>
       </c>
-      <c r="H1" t="s">
-        <v>557</v>
-      </c>
       <c r="I1" t="s">
-        <v>806</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3130,13 +3133,13 @@
         <v>297000</v>
       </c>
       <c r="G2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2" t="s">
         <v>281</v>
       </c>
-      <c r="H2" t="s">
-        <v>558</v>
-      </c>
       <c r="I2" t="s">
-        <v>807</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3150,13 +3153,13 @@
         <v>43900</v>
       </c>
       <c r="G3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H3" t="s">
         <v>282</v>
       </c>
-      <c r="H3" t="s">
-        <v>559</v>
-      </c>
       <c r="I3" t="s">
-        <v>808</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3170,13 +3173,13 @@
         <v>52965</v>
       </c>
       <c r="G4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H4" t="s">
         <v>283</v>
       </c>
-      <c r="H4" t="s">
-        <v>560</v>
-      </c>
       <c r="I4" t="s">
-        <v>809</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,13 +3193,13 @@
         <v>62465</v>
       </c>
       <c r="G5" t="s">
+        <v>620</v>
+      </c>
+      <c r="H5" t="s">
         <v>284</v>
       </c>
-      <c r="H5" t="s">
-        <v>561</v>
-      </c>
       <c r="I5" t="s">
-        <v>810</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3210,13 +3213,13 @@
         <v>54000</v>
       </c>
       <c r="G6" t="s">
+        <v>621</v>
+      </c>
+      <c r="H6" t="s">
         <v>285</v>
       </c>
-      <c r="H6" t="s">
-        <v>562</v>
-      </c>
       <c r="I6" t="s">
-        <v>810</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3230,13 +3233,13 @@
         <v>48000</v>
       </c>
       <c r="G7" t="s">
+        <v>622</v>
+      </c>
+      <c r="H7" t="s">
         <v>286</v>
       </c>
-      <c r="H7" t="s">
-        <v>563</v>
-      </c>
       <c r="I7" t="s">
-        <v>811</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3250,13 +3253,13 @@
         <v>36400</v>
       </c>
       <c r="G8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H8" t="s">
         <v>287</v>
       </c>
-      <c r="H8" t="s">
-        <v>564</v>
-      </c>
       <c r="I8" t="s">
-        <v>811</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3270,13 +3273,13 @@
         <v>100000</v>
       </c>
       <c r="G9" t="s">
+        <v>624</v>
+      </c>
+      <c r="H9" t="s">
         <v>288</v>
       </c>
-      <c r="H9" t="s">
-        <v>565</v>
-      </c>
       <c r="I9" t="s">
-        <v>812</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,13 +3293,13 @@
         <v>30990</v>
       </c>
       <c r="G10" t="s">
+        <v>625</v>
+      </c>
+      <c r="H10" t="s">
         <v>289</v>
       </c>
-      <c r="H10" t="s">
-        <v>566</v>
-      </c>
       <c r="I10" t="s">
-        <v>812</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3310,13 +3313,13 @@
         <v>32290</v>
       </c>
       <c r="G11" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" t="s">
         <v>290</v>
       </c>
-      <c r="H11" t="s">
-        <v>567</v>
-      </c>
       <c r="I11" t="s">
-        <v>812</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3330,13 +3333,13 @@
         <v>35490</v>
       </c>
       <c r="G12" t="s">
+        <v>627</v>
+      </c>
+      <c r="H12" t="s">
         <v>291</v>
       </c>
-      <c r="H12" t="s">
-        <v>568</v>
-      </c>
       <c r="I12" t="s">
-        <v>812</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3350,13 +3353,13 @@
         <v>35350</v>
       </c>
       <c r="G13" t="s">
+        <v>628</v>
+      </c>
+      <c r="H13" t="s">
         <v>292</v>
       </c>
-      <c r="H13" t="s">
-        <v>569</v>
-      </c>
       <c r="I13" t="s">
-        <v>812</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3370,13 +3373,13 @@
         <v>33895</v>
       </c>
       <c r="G14" t="s">
+        <v>629</v>
+      </c>
+      <c r="H14" t="s">
         <v>293</v>
       </c>
-      <c r="H14" t="s">
-        <v>570</v>
-      </c>
       <c r="I14" t="s">
-        <v>813</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3390,13 +3393,13 @@
         <v>34990</v>
       </c>
       <c r="G15" t="s">
+        <v>630</v>
+      </c>
+      <c r="H15" t="s">
         <v>294</v>
       </c>
-      <c r="H15" t="s">
-        <v>571</v>
-      </c>
       <c r="I15" t="s">
-        <v>813</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3410,13 +3413,13 @@
         <v>36990</v>
       </c>
       <c r="G16" t="s">
+        <v>631</v>
+      </c>
+      <c r="H16" t="s">
         <v>295</v>
       </c>
-      <c r="H16" t="s">
-        <v>572</v>
-      </c>
       <c r="I16" t="s">
-        <v>814</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3430,13 +3433,13 @@
         <v>42000</v>
       </c>
       <c r="G17" t="s">
+        <v>632</v>
+      </c>
+      <c r="H17" t="s">
         <v>296</v>
       </c>
-      <c r="H17" t="s">
-        <v>573</v>
-      </c>
       <c r="I17" t="s">
-        <v>814</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3450,13 +3453,13 @@
         <v>120000</v>
       </c>
       <c r="G18" t="s">
+        <v>633</v>
+      </c>
+      <c r="H18" t="s">
         <v>297</v>
       </c>
-      <c r="H18" t="s">
-        <v>574</v>
-      </c>
       <c r="I18" t="s">
-        <v>815</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3470,13 +3473,13 @@
         <v>35700</v>
       </c>
       <c r="G19" t="s">
+        <v>634</v>
+      </c>
+      <c r="H19" t="s">
         <v>298</v>
       </c>
-      <c r="H19" t="s">
-        <v>575</v>
-      </c>
       <c r="I19" t="s">
-        <v>815</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3490,13 +3493,13 @@
         <v>22550</v>
       </c>
       <c r="G20" t="s">
+        <v>635</v>
+      </c>
+      <c r="H20" t="s">
         <v>299</v>
       </c>
-      <c r="H20" t="s">
-        <v>576</v>
-      </c>
       <c r="I20" t="s">
-        <v>816</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3510,13 +3513,13 @@
         <v>42900</v>
       </c>
       <c r="G21" t="s">
+        <v>636</v>
+      </c>
+      <c r="H21" t="s">
         <v>300</v>
       </c>
-      <c r="H21" t="s">
-        <v>577</v>
-      </c>
       <c r="I21" t="s">
-        <v>816</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3530,13 +3533,13 @@
         <v>37990</v>
       </c>
       <c r="G22" t="s">
+        <v>637</v>
+      </c>
+      <c r="H22" t="s">
         <v>301</v>
       </c>
-      <c r="H22" t="s">
-        <v>578</v>
-      </c>
       <c r="I22" t="s">
-        <v>817</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3550,13 +3553,13 @@
         <v>66465</v>
       </c>
       <c r="G23" t="s">
+        <v>638</v>
+      </c>
+      <c r="H23" t="s">
         <v>302</v>
       </c>
-      <c r="H23" t="s">
-        <v>579</v>
-      </c>
       <c r="I23" t="s">
-        <v>818</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3570,13 +3573,13 @@
         <v>32700</v>
       </c>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="H24" t="s">
-        <v>577</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>818</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3590,13 +3593,13 @@
         <v>37990</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>640</v>
       </c>
       <c r="H25" t="s">
-        <v>580</v>
+        <v>303</v>
       </c>
       <c r="I25" t="s">
-        <v>818</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3610,13 +3613,13 @@
         <v>28000</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>641</v>
       </c>
       <c r="H26" t="s">
-        <v>581</v>
+        <v>304</v>
       </c>
       <c r="I26" t="s">
-        <v>818</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3630,13 +3633,13 @@
         <v>47000</v>
       </c>
       <c r="G27" t="s">
-        <v>306</v>
+        <v>642</v>
       </c>
       <c r="H27" t="s">
-        <v>582</v>
+        <v>305</v>
       </c>
       <c r="I27" t="s">
-        <v>819</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3650,13 +3653,13 @@
         <v>44000</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>643</v>
       </c>
       <c r="H28" t="s">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>819</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3670,13 +3673,13 @@
         <v>36840</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>644</v>
       </c>
       <c r="H29" t="s">
-        <v>584</v>
+        <v>307</v>
       </c>
       <c r="I29" t="s">
-        <v>820</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3690,13 +3693,13 @@
         <v>39370</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>645</v>
       </c>
       <c r="H30" t="s">
-        <v>585</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
-        <v>820</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3710,13 +3713,13 @@
         <v>35460</v>
       </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>646</v>
       </c>
       <c r="H31" t="s">
-        <v>586</v>
+        <v>309</v>
       </c>
       <c r="I31" t="s">
-        <v>820</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3730,13 +3733,13 @@
         <v>38060</v>
       </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>647</v>
       </c>
       <c r="H32" t="s">
-        <v>572</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>820</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3750,13 +3753,13 @@
         <v>42000</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>648</v>
       </c>
       <c r="H33" t="s">
-        <v>587</v>
+        <v>310</v>
       </c>
       <c r="I33" t="s">
-        <v>820</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3770,13 +3773,13 @@
         <v>33400</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>649</v>
       </c>
       <c r="H34" t="s">
-        <v>588</v>
+        <v>311</v>
       </c>
       <c r="I34" t="s">
-        <v>821</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3790,13 +3793,13 @@
         <v>105000</v>
       </c>
       <c r="G35" t="s">
-        <v>314</v>
+        <v>650</v>
       </c>
       <c r="H35" t="s">
-        <v>589</v>
+        <v>312</v>
       </c>
       <c r="I35" t="s">
-        <v>821</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3810,13 +3813,13 @@
         <v>56965</v>
       </c>
       <c r="G36" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="H36" t="s">
-        <v>590</v>
+        <v>313</v>
       </c>
       <c r="I36" t="s">
-        <v>821</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3830,13 +3833,13 @@
         <v>46600</v>
       </c>
       <c r="G37" t="s">
-        <v>316</v>
+        <v>652</v>
       </c>
       <c r="H37" t="s">
-        <v>591</v>
+        <v>314</v>
       </c>
       <c r="I37" t="s">
-        <v>821</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3850,13 +3853,13 @@
         <v>21940</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>653</v>
       </c>
       <c r="H38" t="s">
-        <v>592</v>
+        <v>315</v>
       </c>
       <c r="I38" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3870,13 +3873,13 @@
         <v>56500</v>
       </c>
       <c r="G39" t="s">
-        <v>318</v>
+        <v>654</v>
       </c>
       <c r="H39" t="s">
-        <v>593</v>
+        <v>316</v>
       </c>
       <c r="I39" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3890,13 +3893,13 @@
         <v>39900</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>655</v>
       </c>
       <c r="H40" t="s">
-        <v>594</v>
+        <v>317</v>
       </c>
       <c r="I40" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3910,13 +3913,13 @@
         <v>37840</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>656</v>
       </c>
       <c r="H41" t="s">
-        <v>595</v>
+        <v>318</v>
       </c>
       <c r="I41" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3930,13 +3933,13 @@
         <v>40750</v>
       </c>
       <c r="G42" t="s">
-        <v>321</v>
+        <v>657</v>
       </c>
       <c r="H42" t="s">
-        <v>596</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3950,13 +3953,13 @@
         <v>61100</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>658</v>
       </c>
       <c r="H43" t="s">
-        <v>597</v>
+        <v>320</v>
       </c>
       <c r="I43" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3970,13 +3973,13 @@
         <v>175000</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H44" t="s">
-        <v>598</v>
+        <v>321</v>
       </c>
       <c r="I44" t="s">
-        <v>822</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3990,13 +3993,13 @@
         <v>109551</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>660</v>
       </c>
       <c r="H45" t="s">
-        <v>599</v>
+        <v>322</v>
       </c>
       <c r="I45" t="s">
-        <v>823</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4010,13 +4013,13 @@
         <v>35990</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
+        <v>661</v>
       </c>
       <c r="H46" t="s">
-        <v>600</v>
+        <v>323</v>
       </c>
       <c r="I46" t="s">
-        <v>823</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4030,13 +4033,13 @@
         <v>31990</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>662</v>
       </c>
       <c r="H47" t="s">
-        <v>601</v>
+        <v>324</v>
       </c>
       <c r="I47" t="s">
-        <v>824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4050,13 +4053,13 @@
         <v>218000</v>
       </c>
       <c r="G48" t="s">
-        <v>327</v>
+        <v>663</v>
       </c>
       <c r="H48" t="s">
-        <v>602</v>
+        <v>325</v>
       </c>
       <c r="I48" t="s">
-        <v>824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4070,13 +4073,13 @@
         <v>36040</v>
       </c>
       <c r="G49" t="s">
-        <v>328</v>
+        <v>664</v>
       </c>
       <c r="H49" t="s">
-        <v>603</v>
+        <v>326</v>
       </c>
       <c r="I49" t="s">
-        <v>824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4090,13 +4093,13 @@
         <v>38000</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>665</v>
       </c>
       <c r="H50" t="s">
-        <v>604</v>
+        <v>327</v>
       </c>
       <c r="I50" t="s">
-        <v>824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4110,13 +4113,13 @@
         <v>45000</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>666</v>
       </c>
       <c r="H51" t="s">
-        <v>605</v>
+        <v>328</v>
       </c>
       <c r="I51" t="s">
-        <v>824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4130,13 +4133,13 @@
         <v>40290</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>667</v>
       </c>
       <c r="H52" t="s">
-        <v>606</v>
+        <v>329</v>
       </c>
       <c r="I52" t="s">
-        <v>825</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4150,13 +4153,13 @@
         <v>47590</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>668</v>
       </c>
       <c r="H53" t="s">
-        <v>607</v>
+        <v>330</v>
       </c>
       <c r="I53" t="s">
-        <v>825</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4170,13 +4173,13 @@
         <v>46450</v>
       </c>
       <c r="G54" t="s">
-        <v>333</v>
+        <v>669</v>
       </c>
       <c r="H54" t="s">
-        <v>608</v>
+        <v>331</v>
       </c>
       <c r="I54" t="s">
-        <v>825</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4190,13 +4193,13 @@
         <v>43560</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>670</v>
       </c>
       <c r="H55" t="s">
-        <v>609</v>
+        <v>332</v>
       </c>
       <c r="I55" t="s">
-        <v>825</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4210,13 +4213,13 @@
         <v>43720</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>671</v>
       </c>
       <c r="H56" t="s">
-        <v>610</v>
+        <v>333</v>
       </c>
       <c r="I56" t="s">
-        <v>825</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4230,13 +4233,13 @@
         <v>47588</v>
       </c>
       <c r="G57" t="s">
-        <v>336</v>
+        <v>672</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
+        <v>334</v>
       </c>
       <c r="I57" t="s">
-        <v>826</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4250,13 +4253,13 @@
         <v>59200</v>
       </c>
       <c r="G58" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="H58" t="s">
-        <v>612</v>
+        <v>335</v>
       </c>
       <c r="I58" t="s">
-        <v>826</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4270,13 +4273,13 @@
         <v>59965</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>674</v>
       </c>
       <c r="H59" t="s">
-        <v>613</v>
+        <v>336</v>
       </c>
       <c r="I59" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,13 +4293,13 @@
         <v>70626</v>
       </c>
       <c r="G60" t="s">
-        <v>339</v>
+        <v>675</v>
       </c>
       <c r="H60" t="s">
-        <v>614</v>
+        <v>337</v>
       </c>
       <c r="I60" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4310,13 +4313,13 @@
         <v>66402</v>
       </c>
       <c r="G61" t="s">
-        <v>340</v>
+        <v>676</v>
       </c>
       <c r="H61" t="s">
-        <v>615</v>
+        <v>338</v>
       </c>
       <c r="I61" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4330,13 +4333,13 @@
         <v>70210</v>
       </c>
       <c r="G62" t="s">
-        <v>341</v>
+        <v>677</v>
       </c>
       <c r="H62" t="s">
-        <v>616</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4350,13 +4353,13 @@
         <v>46950</v>
       </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>678</v>
       </c>
       <c r="H63" t="s">
-        <v>581</v>
+        <v>304</v>
       </c>
       <c r="I63" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4370,13 +4373,13 @@
         <v>47000</v>
       </c>
       <c r="G64" t="s">
-        <v>343</v>
+        <v>679</v>
       </c>
       <c r="H64" t="s">
-        <v>617</v>
+        <v>340</v>
       </c>
       <c r="I64" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4390,13 +4393,13 @@
         <v>40540</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>680</v>
       </c>
       <c r="H65" t="s">
-        <v>572</v>
+        <v>295</v>
       </c>
       <c r="I65" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4410,13 +4413,13 @@
         <v>42000</v>
       </c>
       <c r="G66" t="s">
-        <v>345</v>
+        <v>681</v>
       </c>
       <c r="H66" t="s">
-        <v>618</v>
+        <v>341</v>
       </c>
       <c r="I66" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4430,13 +4433,13 @@
         <v>88399</v>
       </c>
       <c r="G67" t="s">
-        <v>346</v>
+        <v>682</v>
       </c>
       <c r="H67" t="s">
-        <v>619</v>
+        <v>342</v>
       </c>
       <c r="I67" t="s">
-        <v>827</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4450,13 +4453,13 @@
         <v>29900</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>683</v>
       </c>
       <c r="H68" t="s">
-        <v>620</v>
+        <v>343</v>
       </c>
       <c r="I68" t="s">
-        <v>828</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4470,13 +4473,13 @@
         <v>41100</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="H69" t="s">
-        <v>621</v>
+        <v>344</v>
       </c>
       <c r="I69" t="s">
-        <v>828</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4490,13 +4493,13 @@
         <v>36971</v>
       </c>
       <c r="G70" t="s">
-        <v>349</v>
+        <v>685</v>
       </c>
       <c r="H70" t="s">
-        <v>622</v>
+        <v>345</v>
       </c>
       <c r="I70" t="s">
-        <v>829</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4510,13 +4513,13 @@
         <v>113359</v>
       </c>
       <c r="G71" t="s">
-        <v>350</v>
+        <v>686</v>
       </c>
       <c r="H71" t="s">
-        <v>623</v>
+        <v>346</v>
       </c>
       <c r="I71" t="s">
-        <v>829</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4530,13 +4533,13 @@
         <v>38490</v>
       </c>
       <c r="G72" t="s">
-        <v>351</v>
+        <v>687</v>
       </c>
       <c r="H72" t="s">
-        <v>624</v>
+        <v>347</v>
       </c>
       <c r="I72" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4550,13 +4553,13 @@
         <v>42100</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>688</v>
       </c>
       <c r="H73" t="s">
-        <v>625</v>
+        <v>348</v>
       </c>
       <c r="I73" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4570,13 +4573,13 @@
         <v>25200</v>
       </c>
       <c r="G74" t="s">
-        <v>353</v>
+        <v>689</v>
       </c>
       <c r="H74" t="s">
-        <v>626</v>
+        <v>349</v>
       </c>
       <c r="I74" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4590,13 +4593,13 @@
         <v>138970</v>
       </c>
       <c r="G75" t="s">
-        <v>354</v>
+        <v>690</v>
       </c>
       <c r="H75" t="s">
-        <v>627</v>
+        <v>350</v>
       </c>
       <c r="I75" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4610,13 +4613,13 @@
         <v>94123</v>
       </c>
       <c r="G76" t="s">
-        <v>355</v>
+        <v>691</v>
       </c>
       <c r="H76" t="s">
-        <v>628</v>
+        <v>351</v>
       </c>
       <c r="I76" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4630,13 +4633,13 @@
         <v>82850</v>
       </c>
       <c r="G77" t="s">
-        <v>356</v>
+        <v>692</v>
       </c>
       <c r="H77" t="s">
-        <v>629</v>
+        <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4650,13 +4653,13 @@
         <v>46700</v>
       </c>
       <c r="G78" t="s">
-        <v>357</v>
+        <v>693</v>
       </c>
       <c r="H78" t="s">
-        <v>630</v>
+        <v>353</v>
       </c>
       <c r="I78" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4670,13 +4673,13 @@
         <v>37900</v>
       </c>
       <c r="G79" t="s">
-        <v>358</v>
+        <v>694</v>
       </c>
       <c r="H79" t="s">
-        <v>631</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4690,13 +4693,13 @@
         <v>37650</v>
       </c>
       <c r="G80" t="s">
-        <v>359</v>
+        <v>695</v>
       </c>
       <c r="H80" t="s">
-        <v>599</v>
+        <v>322</v>
       </c>
       <c r="I80" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4710,13 +4713,13 @@
         <v>35990</v>
       </c>
       <c r="G81" t="s">
-        <v>360</v>
+        <v>696</v>
       </c>
       <c r="H81" t="s">
-        <v>567</v>
+        <v>290</v>
       </c>
       <c r="I81" t="s">
-        <v>831</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4730,13 +4733,13 @@
         <v>35490</v>
       </c>
       <c r="G82" t="s">
-        <v>361</v>
+        <v>697</v>
       </c>
       <c r="H82" t="s">
-        <v>632</v>
+        <v>355</v>
       </c>
       <c r="I82" t="s">
-        <v>831</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -4750,13 +4753,13 @@
         <v>46990</v>
       </c>
       <c r="G83" t="s">
-        <v>362</v>
+        <v>698</v>
       </c>
       <c r="H83" t="s">
-        <v>633</v>
+        <v>356</v>
       </c>
       <c r="I83" t="s">
-        <v>832</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4770,13 +4773,13 @@
         <v>125378</v>
       </c>
       <c r="G84" t="s">
-        <v>363</v>
+        <v>699</v>
       </c>
       <c r="H84" t="s">
-        <v>634</v>
+        <v>357</v>
       </c>
       <c r="I84" t="s">
-        <v>832</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4790,13 +4793,13 @@
         <v>141705</v>
       </c>
       <c r="G85" t="s">
-        <v>364</v>
+        <v>700</v>
       </c>
       <c r="H85" t="s">
-        <v>635</v>
+        <v>358</v>
       </c>
       <c r="I85" t="s">
-        <v>832</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4810,13 +4813,13 @@
         <v>91850</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>701</v>
       </c>
       <c r="H86" t="s">
-        <v>636</v>
+        <v>359</v>
       </c>
       <c r="I86" t="s">
-        <v>832</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4830,13 +4833,13 @@
         <v>62850</v>
       </c>
       <c r="G87" t="s">
-        <v>366</v>
+        <v>702</v>
       </c>
       <c r="H87" t="s">
-        <v>637</v>
+        <v>360</v>
       </c>
       <c r="I87" t="s">
-        <v>832</v>
+        <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4850,13 +4853,13 @@
         <v>70805</v>
       </c>
       <c r="G88" t="s">
-        <v>367</v>
+        <v>703</v>
       </c>
       <c r="H88" t="s">
-        <v>638</v>
+        <v>361</v>
       </c>
       <c r="I88" t="s">
-        <v>833</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4870,13 +4873,13 @@
         <v>50995</v>
       </c>
       <c r="G89" t="s">
-        <v>368</v>
+        <v>704</v>
       </c>
       <c r="H89" t="s">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="I89" t="s">
-        <v>833</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4890,13 +4893,13 @@
         <v>47935</v>
       </c>
       <c r="G90" t="s">
-        <v>369</v>
+        <v>705</v>
       </c>
       <c r="H90" t="s">
-        <v>640</v>
+        <v>363</v>
       </c>
       <c r="I90" t="s">
-        <v>833</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4910,13 +4913,13 @@
         <v>48970</v>
       </c>
       <c r="G91" t="s">
-        <v>370</v>
+        <v>706</v>
       </c>
       <c r="H91" t="s">
-        <v>641</v>
+        <v>364</v>
       </c>
       <c r="I91" t="s">
-        <v>833</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4930,13 +4933,13 @@
         <v>49000</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>707</v>
       </c>
       <c r="H92" t="s">
-        <v>642</v>
+        <v>365</v>
       </c>
       <c r="I92" t="s">
-        <v>834</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4950,13 +4953,13 @@
         <v>108867</v>
       </c>
       <c r="G93" t="s">
-        <v>372</v>
+        <v>708</v>
       </c>
       <c r="H93" t="s">
-        <v>601</v>
+        <v>324</v>
       </c>
       <c r="I93" t="s">
-        <v>834</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4970,13 +4973,13 @@
         <v>218000</v>
       </c>
       <c r="G94" t="s">
-        <v>373</v>
+        <v>709</v>
       </c>
       <c r="H94" t="s">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="I94" t="s">
-        <v>834</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4990,13 +4993,13 @@
         <v>53900</v>
       </c>
       <c r="G95" t="s">
-        <v>374</v>
+        <v>710</v>
       </c>
       <c r="H95" t="s">
-        <v>644</v>
+        <v>367</v>
       </c>
       <c r="I95" t="s">
-        <v>834</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5010,13 +5013,13 @@
         <v>50990</v>
       </c>
       <c r="G96" t="s">
-        <v>375</v>
+        <v>711</v>
       </c>
       <c r="H96" t="s">
-        <v>645</v>
+        <v>368</v>
       </c>
       <c r="I96" t="s">
-        <v>835</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5030,13 +5033,13 @@
         <v>68465</v>
       </c>
       <c r="G97" t="s">
-        <v>376</v>
+        <v>712</v>
       </c>
       <c r="H97" t="s">
-        <v>646</v>
+        <v>369</v>
       </c>
       <c r="I97" t="s">
-        <v>835</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5050,13 +5053,13 @@
         <v>29899</v>
       </c>
       <c r="G98" t="s">
-        <v>377</v>
+        <v>713</v>
       </c>
       <c r="H98" t="s">
-        <v>647</v>
+        <v>370</v>
       </c>
       <c r="I98" t="s">
-        <v>835</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5070,13 +5073,13 @@
         <v>73363</v>
       </c>
       <c r="G99" t="s">
-        <v>378</v>
+        <v>714</v>
       </c>
       <c r="H99" t="s">
-        <v>648</v>
+        <v>371</v>
       </c>
       <c r="I99" t="s">
-        <v>835</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5090,13 +5093,13 @@
         <v>87286</v>
       </c>
       <c r="G100" t="s">
-        <v>379</v>
+        <v>715</v>
       </c>
       <c r="H100" t="s">
-        <v>649</v>
+        <v>372</v>
       </c>
       <c r="I100" t="s">
-        <v>835</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5110,13 +5113,13 @@
         <v>33990</v>
       </c>
       <c r="G101" t="s">
-        <v>380</v>
+        <v>716</v>
       </c>
       <c r="H101" t="s">
-        <v>650</v>
+        <v>373</v>
       </c>
       <c r="I101" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5130,13 +5133,13 @@
         <v>71850</v>
       </c>
       <c r="G102" t="s">
-        <v>381</v>
+        <v>717</v>
       </c>
       <c r="H102" t="s">
-        <v>651</v>
+        <v>374</v>
       </c>
       <c r="I102" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5150,13 +5153,13 @@
         <v>114389</v>
       </c>
       <c r="G103" t="s">
-        <v>382</v>
+        <v>718</v>
       </c>
       <c r="H103" t="s">
-        <v>652</v>
+        <v>375</v>
       </c>
       <c r="I103" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5170,13 +5173,13 @@
         <v>55000</v>
       </c>
       <c r="G104" t="s">
-        <v>383</v>
+        <v>719</v>
       </c>
       <c r="H104" t="s">
-        <v>653</v>
+        <v>376</v>
       </c>
       <c r="I104" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -5190,13 +5193,13 @@
         <v>38450</v>
       </c>
       <c r="G105" t="s">
-        <v>384</v>
+        <v>720</v>
       </c>
       <c r="H105" t="s">
-        <v>654</v>
+        <v>377</v>
       </c>
       <c r="I105" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -5210,13 +5213,13 @@
         <v>44700</v>
       </c>
       <c r="G106" t="s">
-        <v>385</v>
+        <v>721</v>
       </c>
       <c r="H106" t="s">
-        <v>655</v>
+        <v>378</v>
       </c>
       <c r="I106" t="s">
-        <v>836</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -5230,13 +5233,13 @@
         <v>36950</v>
       </c>
       <c r="G107" t="s">
-        <v>386</v>
+        <v>722</v>
       </c>
       <c r="H107" t="s">
-        <v>656</v>
+        <v>379</v>
       </c>
       <c r="I107" t="s">
-        <v>837</v>
+        <v>560</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5250,13 +5253,13 @@
         <v>41490</v>
       </c>
       <c r="G108" t="s">
-        <v>387</v>
+        <v>723</v>
       </c>
       <c r="H108" t="s">
-        <v>558</v>
+        <v>281</v>
       </c>
       <c r="I108" t="s">
-        <v>837</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5270,13 +5273,13 @@
         <v>43900</v>
       </c>
       <c r="G109" t="s">
-        <v>388</v>
+        <v>724</v>
       </c>
       <c r="H109" t="s">
-        <v>657</v>
+        <v>380</v>
       </c>
       <c r="I109" t="s">
-        <v>837</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5290,13 +5293,13 @@
         <v>46800</v>
       </c>
       <c r="G110" t="s">
-        <v>389</v>
+        <v>725</v>
       </c>
       <c r="H110" t="s">
-        <v>658</v>
+        <v>381</v>
       </c>
       <c r="I110" t="s">
-        <v>838</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5310,13 +5313,13 @@
         <v>54980</v>
       </c>
       <c r="G111" t="s">
-        <v>390</v>
+        <v>726</v>
       </c>
       <c r="H111" t="s">
-        <v>659</v>
+        <v>382</v>
       </c>
       <c r="I111" t="s">
-        <v>839</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5330,13 +5333,13 @@
         <v>70800</v>
       </c>
       <c r="G112" t="s">
-        <v>391</v>
+        <v>727</v>
       </c>
       <c r="H112" t="s">
-        <v>660</v>
+        <v>383</v>
       </c>
       <c r="I112" t="s">
-        <v>839</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5350,13 +5353,13 @@
         <v>134214</v>
       </c>
       <c r="G113" t="s">
-        <v>392</v>
+        <v>728</v>
       </c>
       <c r="H113" t="s">
-        <v>661</v>
+        <v>384</v>
       </c>
       <c r="I113" t="s">
-        <v>840</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -5370,13 +5373,13 @@
         <v>103827</v>
       </c>
       <c r="G114" t="s">
-        <v>393</v>
+        <v>729</v>
       </c>
       <c r="H114" t="s">
-        <v>662</v>
+        <v>385</v>
       </c>
       <c r="I114" t="s">
-        <v>840</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -5390,13 +5393,13 @@
         <v>89351</v>
       </c>
       <c r="G115" t="s">
-        <v>394</v>
+        <v>730</v>
       </c>
       <c r="H115" t="s">
-        <v>577</v>
+        <v>300</v>
       </c>
       <c r="I115" t="s">
-        <v>840</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -5410,13 +5413,13 @@
         <v>37990</v>
       </c>
       <c r="G116" t="s">
-        <v>395</v>
+        <v>731</v>
       </c>
       <c r="H116" t="s">
-        <v>663</v>
+        <v>386</v>
       </c>
       <c r="I116" t="s">
-        <v>840</v>
+        <v>563</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -5430,13 +5433,13 @@
         <v>50777</v>
       </c>
       <c r="G117" t="s">
-        <v>396</v>
+        <v>732</v>
       </c>
       <c r="H117" t="s">
-        <v>664</v>
+        <v>387</v>
       </c>
       <c r="I117" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -5450,13 +5453,13 @@
         <v>69200</v>
       </c>
       <c r="G118" t="s">
-        <v>397</v>
+        <v>733</v>
       </c>
       <c r="H118" t="s">
-        <v>665</v>
+        <v>388</v>
       </c>
       <c r="I118" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5470,13 +5473,13 @@
         <v>44625</v>
       </c>
       <c r="G119" t="s">
-        <v>398</v>
+        <v>734</v>
       </c>
       <c r="H119" t="s">
-        <v>666</v>
+        <v>389</v>
       </c>
       <c r="I119" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5490,13 +5493,13 @@
         <v>46335</v>
       </c>
       <c r="G120" t="s">
-        <v>399</v>
+        <v>735</v>
       </c>
       <c r="H120" t="s">
-        <v>667</v>
+        <v>390</v>
       </c>
       <c r="I120" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5510,13 +5513,13 @@
         <v>48190</v>
       </c>
       <c r="G121" t="s">
-        <v>400</v>
+        <v>736</v>
       </c>
       <c r="H121" t="s">
-        <v>668</v>
+        <v>391</v>
       </c>
       <c r="I121" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5530,13 +5533,13 @@
         <v>52205</v>
       </c>
       <c r="G122" t="s">
-        <v>401</v>
+        <v>737</v>
       </c>
       <c r="H122" t="s">
-        <v>669</v>
+        <v>392</v>
       </c>
       <c r="I122" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5550,13 +5553,13 @@
         <v>47490</v>
       </c>
       <c r="G123" t="s">
-        <v>402</v>
+        <v>738</v>
       </c>
       <c r="H123" t="s">
-        <v>670</v>
+        <v>393</v>
       </c>
       <c r="I123" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5570,13 +5573,13 @@
         <v>95074</v>
       </c>
       <c r="G124" t="s">
-        <v>403</v>
+        <v>739</v>
       </c>
       <c r="H124" t="s">
-        <v>671</v>
+        <v>394</v>
       </c>
       <c r="I124" t="s">
-        <v>842</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5590,13 +5593,13 @@
         <v>109777</v>
       </c>
       <c r="G125" t="s">
-        <v>404</v>
+        <v>740</v>
       </c>
       <c r="H125" t="s">
-        <v>672</v>
+        <v>395</v>
       </c>
       <c r="I125" t="s">
-        <v>842</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5610,13 +5613,13 @@
         <v>51900</v>
       </c>
       <c r="G126" t="s">
-        <v>405</v>
+        <v>741</v>
       </c>
       <c r="H126" t="s">
-        <v>673</v>
+        <v>396</v>
       </c>
       <c r="I126" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5630,13 +5633,13 @@
         <v>54.341999999999999</v>
       </c>
       <c r="G127" t="s">
-        <v>406</v>
+        <v>742</v>
       </c>
       <c r="H127" t="s">
-        <v>674</v>
+        <v>397</v>
       </c>
       <c r="I127" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5650,13 +5653,13 @@
         <v>47900</v>
       </c>
       <c r="G128" t="s">
-        <v>407</v>
+        <v>743</v>
       </c>
       <c r="H128" t="s">
-        <v>675</v>
+        <v>398</v>
       </c>
       <c r="I128" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5670,13 +5673,13 @@
         <v>53746</v>
       </c>
       <c r="G129" t="s">
-        <v>408</v>
+        <v>744</v>
       </c>
       <c r="H129" t="s">
-        <v>676</v>
+        <v>399</v>
       </c>
       <c r="I129" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -5690,13 +5693,13 @@
         <v>56424</v>
       </c>
       <c r="G130" t="s">
-        <v>409</v>
+        <v>745</v>
       </c>
       <c r="H130" t="s">
-        <v>677</v>
+        <v>400</v>
       </c>
       <c r="I130" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -5710,13 +5713,13 @@
         <v>56455</v>
       </c>
       <c r="G131" t="s">
-        <v>410</v>
+        <v>746</v>
       </c>
       <c r="H131" t="s">
-        <v>678</v>
+        <v>401</v>
       </c>
       <c r="I131" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5730,13 +5733,13 @@
         <v>61960</v>
       </c>
       <c r="G132" t="s">
-        <v>411</v>
+        <v>747</v>
       </c>
       <c r="H132" t="s">
-        <v>679</v>
+        <v>402</v>
       </c>
       <c r="I132" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -5750,13 +5753,13 @@
         <v>49020</v>
       </c>
       <c r="G133" t="s">
-        <v>412</v>
+        <v>748</v>
       </c>
       <c r="H133" t="s">
-        <v>669</v>
+        <v>392</v>
       </c>
       <c r="I133" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5770,13 +5773,13 @@
         <v>47490</v>
       </c>
       <c r="G134" t="s">
-        <v>413</v>
+        <v>749</v>
       </c>
       <c r="H134" t="s">
-        <v>680</v>
+        <v>403</v>
       </c>
       <c r="I134" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5790,13 +5793,13 @@
         <v>39563</v>
       </c>
       <c r="G135" t="s">
-        <v>414</v>
+        <v>750</v>
       </c>
       <c r="H135" t="s">
-        <v>681</v>
+        <v>404</v>
       </c>
       <c r="I135" t="s">
-        <v>844</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5810,13 +5813,13 @@
         <v>155009</v>
       </c>
       <c r="G136" t="s">
-        <v>415</v>
+        <v>751</v>
       </c>
       <c r="H136" t="s">
-        <v>682</v>
+        <v>405</v>
       </c>
       <c r="I136" t="s">
-        <v>844</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5830,13 +5833,13 @@
         <v>48990</v>
       </c>
       <c r="G137" t="s">
-        <v>416</v>
+        <v>752</v>
       </c>
       <c r="H137" t="s">
-        <v>683</v>
+        <v>406</v>
       </c>
       <c r="I137" t="s">
-        <v>844</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -5850,13 +5853,13 @@
         <v>47550</v>
       </c>
       <c r="G138" t="s">
-        <v>417</v>
+        <v>753</v>
       </c>
       <c r="H138" t="s">
-        <v>684</v>
+        <v>407</v>
       </c>
       <c r="I138" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -5870,13 +5873,13 @@
         <v>55900</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>754</v>
       </c>
       <c r="H139" t="s">
-        <v>685</v>
+        <v>408</v>
       </c>
       <c r="I139" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -5890,13 +5893,13 @@
         <v>59900</v>
       </c>
       <c r="G140" t="s">
-        <v>419</v>
+        <v>755</v>
       </c>
       <c r="H140" t="s">
-        <v>686</v>
+        <v>409</v>
       </c>
       <c r="I140" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -5910,13 +5913,13 @@
         <v>109819</v>
       </c>
       <c r="G141" t="s">
-        <v>420</v>
+        <v>756</v>
       </c>
       <c r="H141" t="s">
-        <v>611</v>
+        <v>334</v>
       </c>
       <c r="I141" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -5930,13 +5933,13 @@
         <v>59200</v>
       </c>
       <c r="G142" t="s">
-        <v>421</v>
+        <v>757</v>
       </c>
       <c r="H142" t="s">
-        <v>687</v>
+        <v>410</v>
       </c>
       <c r="I142" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -5950,13 +5953,13 @@
         <v>67300</v>
       </c>
       <c r="G143" t="s">
-        <v>422</v>
+        <v>758</v>
       </c>
       <c r="H143" t="s">
-        <v>688</v>
+        <v>411</v>
       </c>
       <c r="I143" t="s">
-        <v>845</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -5970,13 +5973,13 @@
         <v>54995</v>
       </c>
       <c r="G144" t="s">
-        <v>423</v>
+        <v>759</v>
       </c>
       <c r="H144" t="s">
-        <v>689</v>
+        <v>412</v>
       </c>
       <c r="I144" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -5990,13 +5993,13 @@
         <v>49050</v>
       </c>
       <c r="G145" t="s">
-        <v>424</v>
+        <v>760</v>
       </c>
       <c r="H145" t="s">
-        <v>690</v>
+        <v>413</v>
       </c>
       <c r="I145" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6010,13 +6013,13 @@
         <v>53255</v>
       </c>
       <c r="G146" t="s">
-        <v>425</v>
+        <v>761</v>
       </c>
       <c r="H146" t="s">
-        <v>691</v>
+        <v>414</v>
       </c>
       <c r="I146" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6030,13 +6033,13 @@
         <v>37995</v>
       </c>
       <c r="G147" t="s">
-        <v>426</v>
+        <v>762</v>
       </c>
       <c r="H147" t="s">
-        <v>692</v>
+        <v>415</v>
       </c>
       <c r="I147" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6050,13 +6053,13 @@
         <v>52550</v>
       </c>
       <c r="G148" t="s">
-        <v>427</v>
+        <v>763</v>
       </c>
       <c r="H148" t="s">
-        <v>693</v>
+        <v>416</v>
       </c>
       <c r="I148" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -6070,13 +6073,13 @@
         <v>85000</v>
       </c>
       <c r="G149" t="s">
-        <v>428</v>
+        <v>764</v>
       </c>
       <c r="H149" t="s">
-        <v>694</v>
+        <v>417</v>
       </c>
       <c r="I149" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -6090,13 +6093,13 @@
         <v>57390</v>
       </c>
       <c r="G150" t="s">
-        <v>429</v>
+        <v>765</v>
       </c>
       <c r="H150" t="s">
-        <v>695</v>
+        <v>418</v>
       </c>
       <c r="I150" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -6110,13 +6113,13 @@
         <v>40490</v>
       </c>
       <c r="G151" t="s">
-        <v>430</v>
+        <v>766</v>
       </c>
       <c r="H151" t="s">
-        <v>696</v>
+        <v>419</v>
       </c>
       <c r="I151" t="s">
-        <v>846</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -6130,13 +6133,13 @@
         <v>53978</v>
       </c>
       <c r="G152" t="s">
-        <v>431</v>
+        <v>767</v>
       </c>
       <c r="H152" t="s">
-        <v>632</v>
+        <v>355</v>
       </c>
       <c r="I152" t="s">
-        <v>847</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -6150,13 +6153,13 @@
         <v>46990</v>
       </c>
       <c r="G153" t="s">
-        <v>432</v>
+        <v>768</v>
       </c>
       <c r="H153" t="s">
-        <v>697</v>
+        <v>420</v>
       </c>
       <c r="I153" t="s">
-        <v>848</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -6170,13 +6173,13 @@
         <v>115341</v>
       </c>
       <c r="G154" t="s">
-        <v>433</v>
+        <v>769</v>
       </c>
       <c r="H154" t="s">
-        <v>698</v>
+        <v>421</v>
       </c>
       <c r="I154" t="s">
-        <v>848</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -6190,13 +6193,13 @@
         <v>56370</v>
       </c>
       <c r="G155" t="s">
-        <v>434</v>
+        <v>770</v>
       </c>
       <c r="H155" t="s">
-        <v>699</v>
+        <v>422</v>
       </c>
       <c r="I155" t="s">
-        <v>848</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6210,13 +6213,13 @@
         <v>61495</v>
       </c>
       <c r="G156" t="s">
-        <v>435</v>
+        <v>771</v>
       </c>
       <c r="H156" t="s">
-        <v>700</v>
+        <v>423</v>
       </c>
       <c r="I156" t="s">
-        <v>849</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -6230,13 +6233,13 @@
         <v>63490</v>
       </c>
       <c r="G157" t="s">
-        <v>436</v>
+        <v>772</v>
       </c>
       <c r="H157" t="s">
-        <v>701</v>
+        <v>424</v>
       </c>
       <c r="I157" t="s">
-        <v>849</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6250,13 +6253,13 @@
         <v>69950</v>
       </c>
       <c r="G158" t="s">
-        <v>437</v>
+        <v>773</v>
       </c>
       <c r="H158" t="s">
-        <v>701</v>
+        <v>424</v>
       </c>
       <c r="I158" t="s">
-        <v>849</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -6270,13 +6273,13 @@
         <v>69950</v>
       </c>
       <c r="G159" t="s">
-        <v>438</v>
+        <v>774</v>
       </c>
       <c r="H159" t="s">
-        <v>702</v>
+        <v>425</v>
       </c>
       <c r="I159" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6290,13 +6293,13 @@
         <v>135166</v>
       </c>
       <c r="G160" t="s">
-        <v>439</v>
+        <v>775</v>
       </c>
       <c r="H160" t="s">
-        <v>703</v>
+        <v>426</v>
       </c>
       <c r="I160" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -6310,13 +6313,13 @@
         <v>114222</v>
       </c>
       <c r="G161" t="s">
-        <v>440</v>
+        <v>776</v>
       </c>
       <c r="H161" t="s">
-        <v>704</v>
+        <v>427</v>
       </c>
       <c r="I161" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -6330,13 +6333,13 @@
         <v>98514</v>
       </c>
       <c r="G162" t="s">
-        <v>441</v>
+        <v>777</v>
       </c>
       <c r="H162" t="s">
-        <v>644</v>
+        <v>367</v>
       </c>
       <c r="I162" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -6350,13 +6353,13 @@
         <v>50990</v>
       </c>
       <c r="G163" t="s">
-        <v>442</v>
+        <v>778</v>
       </c>
       <c r="H163" t="s">
-        <v>705</v>
+        <v>428</v>
       </c>
       <c r="I163" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -6370,13 +6373,13 @@
         <v>62900</v>
       </c>
       <c r="G164" t="s">
-        <v>443</v>
+        <v>779</v>
       </c>
       <c r="H164" t="s">
-        <v>706</v>
+        <v>429</v>
       </c>
       <c r="I164" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -6390,13 +6393,13 @@
         <v>77300</v>
       </c>
       <c r="G165" t="s">
-        <v>444</v>
+        <v>780</v>
       </c>
       <c r="H165" t="s">
-        <v>707</v>
+        <v>430</v>
       </c>
       <c r="I165" t="s">
-        <v>850</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -6410,13 +6413,13 @@
         <v>41560</v>
       </c>
       <c r="G166" t="s">
-        <v>445</v>
+        <v>781</v>
       </c>
       <c r="H166" t="s">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="I166" t="s">
-        <v>851</v>
+        <v>574</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -6430,13 +6433,13 @@
         <v>57000</v>
       </c>
       <c r="G167" t="s">
-        <v>446</v>
+        <v>782</v>
       </c>
       <c r="H167" t="s">
-        <v>709</v>
+        <v>432</v>
       </c>
       <c r="I167" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6450,13 +6453,13 @@
         <v>55519</v>
       </c>
       <c r="G168" t="s">
-        <v>447</v>
+        <v>783</v>
       </c>
       <c r="H168" t="s">
-        <v>710</v>
+        <v>433</v>
       </c>
       <c r="I168" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -6470,13 +6473,13 @@
         <v>58197</v>
       </c>
       <c r="G169" t="s">
-        <v>448</v>
+        <v>784</v>
       </c>
       <c r="H169" t="s">
-        <v>711</v>
+        <v>434</v>
       </c>
       <c r="I169" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6490,13 +6493,13 @@
         <v>57900</v>
       </c>
       <c r="G170" t="s">
-        <v>449</v>
+        <v>785</v>
       </c>
       <c r="H170" t="s">
-        <v>712</v>
+        <v>435</v>
       </c>
       <c r="I170" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -6510,13 +6513,13 @@
         <v>53990</v>
       </c>
       <c r="G171" t="s">
-        <v>450</v>
+        <v>786</v>
       </c>
       <c r="H171" t="s">
-        <v>713</v>
+        <v>436</v>
       </c>
       <c r="I171" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -6530,13 +6533,13 @@
         <v>90000</v>
       </c>
       <c r="G172" t="s">
-        <v>451</v>
+        <v>787</v>
       </c>
       <c r="H172" t="s">
-        <v>714</v>
+        <v>437</v>
       </c>
       <c r="I172" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -6550,13 +6553,13 @@
         <v>115000</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>788</v>
       </c>
       <c r="H173" t="s">
-        <v>715</v>
+        <v>438</v>
       </c>
       <c r="I173" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6570,13 +6573,13 @@
         <v>135900</v>
       </c>
       <c r="G174" t="s">
-        <v>453</v>
+        <v>789</v>
       </c>
       <c r="H174" t="s">
-        <v>716</v>
+        <v>439</v>
       </c>
       <c r="I174" t="s">
-        <v>853</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -6590,13 +6593,13 @@
         <v>60000</v>
       </c>
       <c r="G175" t="s">
-        <v>454</v>
+        <v>790</v>
       </c>
       <c r="H175" t="s">
-        <v>717</v>
+        <v>440</v>
       </c>
       <c r="I175" t="s">
-        <v>853</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -6610,13 +6613,13 @@
         <v>45080</v>
       </c>
       <c r="G176" t="s">
-        <v>455</v>
+        <v>791</v>
       </c>
       <c r="H176" t="s">
-        <v>718</v>
+        <v>441</v>
       </c>
       <c r="I176" t="s">
-        <v>853</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -6630,13 +6633,13 @@
         <v>69990</v>
       </c>
       <c r="G177" t="s">
-        <v>456</v>
+        <v>792</v>
       </c>
       <c r="H177" t="s">
-        <v>719</v>
+        <v>442</v>
       </c>
       <c r="I177" t="s">
-        <v>853</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -6650,13 +6653,13 @@
         <v>71200</v>
       </c>
       <c r="G178" t="s">
-        <v>457</v>
+        <v>793</v>
       </c>
       <c r="H178" t="s">
-        <v>720</v>
+        <v>443</v>
       </c>
       <c r="I178" t="s">
-        <v>854</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -6670,13 +6673,13 @@
         <v>57490</v>
       </c>
       <c r="G179" t="s">
-        <v>458</v>
+        <v>794</v>
       </c>
       <c r="H179" t="s">
-        <v>721</v>
+        <v>444</v>
       </c>
       <c r="I179" t="s">
-        <v>855</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -6690,13 +6693,13 @@
         <v>156348</v>
       </c>
       <c r="G180" t="s">
-        <v>459</v>
+        <v>795</v>
       </c>
       <c r="H180" t="s">
-        <v>722</v>
+        <v>445</v>
       </c>
       <c r="I180" t="s">
-        <v>855</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -6710,13 +6713,13 @@
         <v>87550</v>
       </c>
       <c r="G181" t="s">
-        <v>460</v>
+        <v>796</v>
       </c>
       <c r="H181" t="s">
-        <v>723</v>
+        <v>446</v>
       </c>
       <c r="I181" t="s">
-        <v>855</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -6730,13 +6733,13 @@
         <v>110000</v>
       </c>
       <c r="G182" t="s">
-        <v>461</v>
+        <v>797</v>
       </c>
       <c r="H182" t="s">
-        <v>724</v>
+        <v>447</v>
       </c>
       <c r="I182" t="s">
-        <v>855</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -6750,13 +6753,13 @@
         <v>76650</v>
       </c>
       <c r="G183" t="s">
-        <v>462</v>
+        <v>798</v>
       </c>
       <c r="H183" t="s">
-        <v>725</v>
+        <v>448</v>
       </c>
       <c r="I183" t="s">
-        <v>855</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -6770,13 +6773,13 @@
         <v>106050</v>
       </c>
       <c r="G184" t="s">
-        <v>463</v>
+        <v>799</v>
       </c>
       <c r="H184" t="s">
-        <v>726</v>
+        <v>449</v>
       </c>
       <c r="I184" t="s">
-        <v>856</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -6790,13 +6793,13 @@
         <v>71010</v>
       </c>
       <c r="G185" t="s">
-        <v>464</v>
+        <v>800</v>
       </c>
       <c r="H185" t="s">
-        <v>664</v>
+        <v>387</v>
       </c>
       <c r="I185" t="s">
-        <v>856</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -6810,13 +6813,13 @@
         <v>69200</v>
       </c>
       <c r="G186" t="s">
-        <v>465</v>
+        <v>801</v>
       </c>
       <c r="H186" t="s">
-        <v>727</v>
+        <v>450</v>
       </c>
       <c r="I186" t="s">
-        <v>856</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -6830,13 +6833,13 @@
         <v>48850</v>
       </c>
       <c r="G187" t="s">
-        <v>466</v>
+        <v>802</v>
       </c>
       <c r="H187" t="s">
-        <v>716</v>
+        <v>439</v>
       </c>
       <c r="I187" t="s">
-        <v>857</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -6850,13 +6853,13 @@
         <v>60000</v>
       </c>
       <c r="G188" t="s">
-        <v>467</v>
+        <v>803</v>
       </c>
       <c r="H188" t="s">
-        <v>728</v>
+        <v>451</v>
       </c>
       <c r="I188" t="s">
-        <v>858</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -6870,13 +6873,13 @@
         <v>95990</v>
       </c>
       <c r="G189" t="s">
-        <v>468</v>
+        <v>804</v>
       </c>
       <c r="H189" t="s">
-        <v>729</v>
+        <v>452</v>
       </c>
       <c r="I189" t="s">
-        <v>859</v>
+        <v>582</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -6890,13 +6893,13 @@
         <v>157300</v>
       </c>
       <c r="G190" t="s">
-        <v>469</v>
+        <v>805</v>
       </c>
       <c r="H190" t="s">
-        <v>730</v>
+        <v>453</v>
       </c>
       <c r="I190" t="s">
-        <v>859</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -6910,13 +6913,13 @@
         <v>77200</v>
       </c>
       <c r="G191" t="s">
-        <v>470</v>
+        <v>806</v>
       </c>
       <c r="H191" t="s">
-        <v>731</v>
+        <v>454</v>
       </c>
       <c r="I191" t="s">
-        <v>859</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -6930,13 +6933,13 @@
         <v>66490</v>
       </c>
       <c r="G192" t="s">
-        <v>471</v>
+        <v>807</v>
       </c>
       <c r="H192" t="s">
-        <v>732</v>
+        <v>455</v>
       </c>
       <c r="I192" t="s">
-        <v>859</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -6950,13 +6953,13 @@
         <v>86850</v>
       </c>
       <c r="G193" t="s">
-        <v>472</v>
+        <v>808</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>296</v>
       </c>
       <c r="I193" t="s">
-        <v>860</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -6970,13 +6973,13 @@
         <v>120000</v>
       </c>
       <c r="G194" t="s">
-        <v>473</v>
+        <v>809</v>
       </c>
       <c r="H194" t="s">
-        <v>733</v>
+        <v>456</v>
       </c>
       <c r="I194" t="s">
-        <v>860</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -6990,13 +6993,13 @@
         <v>100100</v>
       </c>
       <c r="G195" t="s">
-        <v>474</v>
+        <v>810</v>
       </c>
       <c r="H195" t="s">
-        <v>734</v>
+        <v>457</v>
       </c>
       <c r="I195" t="s">
-        <v>861</v>
+        <v>584</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -7010,13 +7013,13 @@
         <v>189668</v>
       </c>
       <c r="G196" t="s">
-        <v>475</v>
+        <v>811</v>
       </c>
       <c r="H196" t="s">
-        <v>735</v>
+        <v>458</v>
       </c>
       <c r="I196" t="s">
-        <v>861</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -7030,13 +7033,13 @@
         <v>157776</v>
       </c>
       <c r="G197" t="s">
-        <v>476</v>
+        <v>812</v>
       </c>
       <c r="H197" t="s">
-        <v>736</v>
+        <v>459</v>
       </c>
       <c r="I197" t="s">
-        <v>861</v>
+        <v>584</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -7050,13 +7053,13 @@
         <v>95850</v>
       </c>
       <c r="G198" t="s">
-        <v>477</v>
+        <v>813</v>
       </c>
       <c r="H198" t="s">
-        <v>737</v>
+        <v>460</v>
       </c>
       <c r="I198" t="s">
-        <v>862</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7070,13 +7073,13 @@
         <v>146050</v>
       </c>
       <c r="G199" t="s">
-        <v>478</v>
+        <v>814</v>
       </c>
       <c r="H199" t="s">
-        <v>738</v>
+        <v>461</v>
       </c>
       <c r="I199" t="s">
-        <v>863</v>
+        <v>586</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -7090,13 +7093,13 @@
         <v>141970</v>
       </c>
       <c r="G200" t="s">
-        <v>479</v>
+        <v>815</v>
       </c>
       <c r="H200" t="s">
-        <v>687</v>
+        <v>410</v>
       </c>
       <c r="I200" t="s">
-        <v>863</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -7110,13 +7113,13 @@
         <v>67300</v>
       </c>
       <c r="G201" t="s">
-        <v>480</v>
+        <v>816</v>
       </c>
       <c r="H201" t="s">
-        <v>739</v>
+        <v>462</v>
       </c>
       <c r="I201" t="s">
-        <v>864</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -7130,13 +7133,13 @@
         <v>190620</v>
       </c>
       <c r="G202" t="s">
-        <v>481</v>
+        <v>817</v>
       </c>
       <c r="H202" t="s">
-        <v>740</v>
+        <v>463</v>
       </c>
       <c r="I202" t="s">
-        <v>865</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -7150,13 +7153,13 @@
         <v>135000</v>
       </c>
       <c r="G203" t="s">
-        <v>482</v>
+        <v>818</v>
       </c>
       <c r="H203" t="s">
-        <v>741</v>
+        <v>464</v>
       </c>
       <c r="I203" t="s">
-        <v>866</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -7170,13 +7173,13 @@
         <v>86200</v>
       </c>
       <c r="G204" t="s">
-        <v>483</v>
+        <v>819</v>
       </c>
       <c r="H204" t="s">
-        <v>742</v>
+        <v>465</v>
       </c>
       <c r="I204" t="s">
-        <v>866</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -7190,13 +7193,13 @@
         <v>85300</v>
       </c>
       <c r="G205" t="s">
-        <v>484</v>
+        <v>820</v>
       </c>
       <c r="H205" t="s">
-        <v>743</v>
+        <v>466</v>
       </c>
       <c r="I205" t="s">
-        <v>866</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -7210,13 +7213,13 @@
         <v>57650</v>
       </c>
       <c r="G206" t="s">
-        <v>485</v>
+        <v>821</v>
       </c>
       <c r="H206" t="s">
-        <v>744</v>
+        <v>467</v>
       </c>
       <c r="I206" t="s">
-        <v>866</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -7230,13 +7233,13 @@
         <v>74400</v>
       </c>
       <c r="G207" t="s">
-        <v>486</v>
+        <v>822</v>
       </c>
       <c r="H207" t="s">
-        <v>745</v>
+        <v>468</v>
       </c>
       <c r="I207" t="s">
-        <v>867</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -7250,13 +7253,13 @@
         <v>66069</v>
       </c>
       <c r="G208" t="s">
-        <v>487</v>
+        <v>823</v>
       </c>
       <c r="H208" t="s">
-        <v>746</v>
+        <v>469</v>
       </c>
       <c r="I208" t="s">
-        <v>868</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7270,13 +7273,13 @@
         <v>136100</v>
       </c>
       <c r="G209" t="s">
-        <v>488</v>
+        <v>824</v>
       </c>
       <c r="H209" t="s">
-        <v>747</v>
+        <v>470</v>
       </c>
       <c r="I209" t="s">
-        <v>868</v>
+        <v>591</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -7290,13 +7293,13 @@
         <v>191096</v>
       </c>
       <c r="G210" t="s">
-        <v>489</v>
+        <v>825</v>
       </c>
       <c r="H210" t="s">
-        <v>748</v>
+        <v>471</v>
       </c>
       <c r="I210" t="s">
-        <v>869</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -7310,13 +7313,13 @@
         <v>88600</v>
       </c>
       <c r="G211" t="s">
-        <v>490</v>
+        <v>826</v>
       </c>
       <c r="H211" t="s">
-        <v>749</v>
+        <v>472</v>
       </c>
       <c r="I211" t="s">
-        <v>870</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -7330,13 +7333,13 @@
         <v>110658</v>
       </c>
       <c r="G212" t="s">
-        <v>491</v>
+        <v>827</v>
       </c>
       <c r="H212" t="s">
-        <v>750</v>
+        <v>473</v>
       </c>
       <c r="I212" t="s">
-        <v>871</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -7350,13 +7353,13 @@
         <v>37800</v>
       </c>
       <c r="G213" t="s">
-        <v>492</v>
+        <v>828</v>
       </c>
       <c r="H213" t="s">
-        <v>751</v>
+        <v>474</v>
       </c>
       <c r="I213" t="s">
-        <v>871</v>
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -7370,13 +7373,13 @@
         <v>400000</v>
       </c>
       <c r="G214" t="s">
-        <v>493</v>
+        <v>829</v>
       </c>
       <c r="H214" t="s">
-        <v>752</v>
+        <v>475</v>
       </c>
       <c r="I214" t="s">
-        <v>872</v>
+        <v>595</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -7390,13 +7393,13 @@
         <v>56150</v>
       </c>
       <c r="G215" t="s">
-        <v>494</v>
+        <v>830</v>
       </c>
       <c r="H215" t="s">
-        <v>753</v>
+        <v>476</v>
       </c>
       <c r="I215" t="s">
-        <v>873</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -7410,13 +7413,13 @@
         <v>76815</v>
       </c>
       <c r="G216" t="s">
-        <v>495</v>
+        <v>831</v>
       </c>
       <c r="H216" t="s">
-        <v>754</v>
+        <v>477</v>
       </c>
       <c r="I216" t="s">
-        <v>874</v>
+        <v>597</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -7430,13 +7433,13 @@
         <v>114446</v>
       </c>
       <c r="G217" t="s">
-        <v>496</v>
+        <v>832</v>
       </c>
       <c r="H217" t="s">
-        <v>755</v>
+        <v>478</v>
       </c>
       <c r="I217" t="s">
-        <v>874</v>
+        <v>597</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -7450,13 +7453,13 @@
         <v>135291</v>
       </c>
       <c r="G218" t="s">
-        <v>497</v>
+        <v>833</v>
       </c>
       <c r="H218" t="s">
-        <v>756</v>
+        <v>479</v>
       </c>
       <c r="I218" t="s">
-        <v>875</v>
+        <v>598</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7470,13 +7473,13 @@
         <v>43050</v>
       </c>
       <c r="G219" t="s">
-        <v>498</v>
+        <v>834</v>
       </c>
       <c r="H219" t="s">
-        <v>757</v>
+        <v>480</v>
       </c>
       <c r="I219" t="s">
-        <v>875</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -7490,13 +7493,13 @@
         <v>37790</v>
       </c>
       <c r="G220" t="s">
-        <v>499</v>
+        <v>835</v>
       </c>
       <c r="H220" t="s">
-        <v>758</v>
+        <v>481</v>
       </c>
       <c r="I220" t="s">
-        <v>875</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -7510,13 +7513,13 @@
         <v>41240</v>
       </c>
       <c r="G221" t="s">
-        <v>500</v>
+        <v>836</v>
       </c>
       <c r="H221" t="s">
-        <v>759</v>
+        <v>482</v>
       </c>
       <c r="I221" t="s">
-        <v>875</v>
+        <v>598</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7530,13 +7533,13 @@
         <v>40150</v>
       </c>
       <c r="G222" t="s">
-        <v>501</v>
+        <v>837</v>
       </c>
       <c r="H222" t="s">
-        <v>714</v>
+        <v>437</v>
       </c>
       <c r="I222" t="s">
-        <v>876</v>
+        <v>599</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -7550,13 +7553,13 @@
         <v>115000</v>
       </c>
       <c r="G223" t="s">
-        <v>502</v>
+        <v>838</v>
       </c>
       <c r="H223" t="s">
-        <v>760</v>
+        <v>483</v>
       </c>
       <c r="I223" t="s">
-        <v>876</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -7570,13 +7573,13 @@
         <v>66000</v>
       </c>
       <c r="G224" t="s">
-        <v>503</v>
+        <v>839</v>
       </c>
       <c r="H224" t="s">
-        <v>761</v>
+        <v>484</v>
       </c>
       <c r="I224" t="s">
-        <v>877</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -7590,13 +7593,13 @@
         <v>95200</v>
       </c>
       <c r="G225" t="s">
-        <v>504</v>
+        <v>840</v>
       </c>
       <c r="H225" t="s">
-        <v>762</v>
+        <v>485</v>
       </c>
       <c r="I225" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -7610,13 +7613,13 @@
         <v>44750</v>
       </c>
       <c r="G226" t="s">
-        <v>505</v>
+        <v>841</v>
       </c>
       <c r="H226" t="s">
-        <v>763</v>
+        <v>486</v>
       </c>
       <c r="I226" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -7630,13 +7633,13 @@
         <v>43640</v>
       </c>
       <c r="G227" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="H227" t="s">
-        <v>764</v>
+        <v>487</v>
       </c>
       <c r="I227" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -7650,13 +7653,13 @@
         <v>42440</v>
       </c>
       <c r="G228" t="s">
-        <v>507</v>
+        <v>843</v>
       </c>
       <c r="H228" t="s">
-        <v>765</v>
+        <v>488</v>
       </c>
       <c r="I228" t="s">
-        <v>879</v>
+        <v>602</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7670,13 +7673,13 @@
         <v>64581</v>
       </c>
       <c r="G229" t="s">
-        <v>508</v>
+        <v>844</v>
       </c>
       <c r="H229" t="s">
-        <v>766</v>
+        <v>489</v>
       </c>
       <c r="I229" t="s">
-        <v>880</v>
+        <v>603</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7690,13 +7693,13 @@
         <v>105550</v>
       </c>
       <c r="G230" t="s">
-        <v>509</v>
+        <v>845</v>
       </c>
       <c r="H230" t="s">
-        <v>767</v>
+        <v>490</v>
       </c>
       <c r="I230" t="s">
-        <v>881</v>
+        <v>604</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -7710,13 +7713,13 @@
         <v>150990</v>
       </c>
       <c r="G231" t="s">
-        <v>510</v>
+        <v>846</v>
       </c>
       <c r="H231" t="s">
-        <v>723</v>
+        <v>446</v>
       </c>
       <c r="I231" t="s">
-        <v>881</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -7730,13 +7733,13 @@
         <v>110000</v>
       </c>
       <c r="G232" t="s">
-        <v>511</v>
+        <v>847</v>
       </c>
       <c r="H232" t="s">
-        <v>768</v>
+        <v>491</v>
       </c>
       <c r="I232" t="s">
-        <v>882</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -7750,13 +7753,13 @@
         <v>71400</v>
       </c>
       <c r="G233" t="s">
-        <v>512</v>
+        <v>848</v>
       </c>
       <c r="H233" t="s">
-        <v>769</v>
+        <v>492</v>
       </c>
       <c r="I233" t="s">
-        <v>883</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -7770,13 +7773,13 @@
         <v>110650</v>
       </c>
       <c r="G234" t="s">
-        <v>513</v>
+        <v>849</v>
       </c>
       <c r="H234" t="s">
-        <v>770</v>
+        <v>493</v>
       </c>
       <c r="I234" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -7790,13 +7793,13 @@
         <v>51940</v>
       </c>
       <c r="G235" t="s">
-        <v>514</v>
+        <v>850</v>
       </c>
       <c r="H235" t="s">
-        <v>771</v>
+        <v>494</v>
       </c>
       <c r="I235" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -7810,13 +7813,13 @@
         <v>53640</v>
       </c>
       <c r="G236" t="s">
-        <v>515</v>
+        <v>851</v>
       </c>
       <c r="H236" t="s">
-        <v>772</v>
+        <v>495</v>
       </c>
       <c r="I236" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7830,13 +7833,13 @@
         <v>50992</v>
       </c>
       <c r="G237" t="s">
-        <v>516</v>
+        <v>852</v>
       </c>
       <c r="H237" t="s">
-        <v>773</v>
+        <v>496</v>
       </c>
       <c r="I237" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -7850,13 +7853,13 @@
         <v>63250</v>
       </c>
       <c r="G238" t="s">
-        <v>517</v>
+        <v>853</v>
       </c>
       <c r="H238" t="s">
-        <v>770</v>
+        <v>493</v>
       </c>
       <c r="I238" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,13 +7873,13 @@
         <v>51940</v>
       </c>
       <c r="G239" t="s">
-        <v>518</v>
+        <v>854</v>
       </c>
       <c r="H239" t="s">
-        <v>771</v>
+        <v>494</v>
       </c>
       <c r="I239" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -7890,13 +7893,13 @@
         <v>53640</v>
       </c>
       <c r="G240" t="s">
-        <v>519</v>
+        <v>855</v>
       </c>
       <c r="H240" t="s">
-        <v>774</v>
+        <v>497</v>
       </c>
       <c r="I240" t="s">
-        <v>884</v>
+        <v>607</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -7910,13 +7913,13 @@
         <v>55990</v>
       </c>
       <c r="G241" t="s">
-        <v>520</v>
+        <v>856</v>
       </c>
       <c r="H241" t="s">
-        <v>775</v>
+        <v>498</v>
       </c>
       <c r="I241" t="s">
-        <v>885</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -7930,13 +7933,13 @@
         <v>83590</v>
       </c>
       <c r="G242" t="s">
-        <v>521</v>
+        <v>857</v>
       </c>
       <c r="H242" t="s">
-        <v>776</v>
+        <v>499</v>
       </c>
       <c r="I242" t="s">
-        <v>886</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -7950,13 +7953,13 @@
         <v>94590</v>
       </c>
       <c r="G243" t="s">
-        <v>522</v>
+        <v>858</v>
       </c>
       <c r="H243" t="s">
-        <v>777</v>
+        <v>500</v>
       </c>
       <c r="I243" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -7970,13 +7973,13 @@
         <v>57940</v>
       </c>
       <c r="G244" t="s">
-        <v>523</v>
+        <v>859</v>
       </c>
       <c r="H244" t="s">
-        <v>778</v>
+        <v>501</v>
       </c>
       <c r="I244" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -7990,13 +7993,13 @@
         <v>59640</v>
       </c>
       <c r="G245" t="s">
-        <v>524</v>
+        <v>860</v>
       </c>
       <c r="H245" t="s">
-        <v>779</v>
+        <v>502</v>
       </c>
       <c r="I245" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -8010,13 +8013,13 @@
         <v>56942</v>
       </c>
       <c r="G246" t="s">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="H246" t="s">
-        <v>780</v>
+        <v>503</v>
       </c>
       <c r="I246" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -8030,13 +8033,13 @@
         <v>69250</v>
       </c>
       <c r="G247" t="s">
-        <v>526</v>
+        <v>862</v>
       </c>
       <c r="H247" t="s">
-        <v>777</v>
+        <v>500</v>
       </c>
       <c r="I247" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -8050,13 +8053,13 @@
         <v>57940</v>
       </c>
       <c r="G248" t="s">
-        <v>527</v>
+        <v>863</v>
       </c>
       <c r="H248" t="s">
-        <v>778</v>
+        <v>501</v>
       </c>
       <c r="I248" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,13 +8073,13 @@
         <v>59640</v>
       </c>
       <c r="G249" t="s">
-        <v>528</v>
+        <v>864</v>
       </c>
       <c r="H249" t="s">
-        <v>781</v>
+        <v>504</v>
       </c>
       <c r="I249" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -8090,13 +8093,13 @@
         <v>61990</v>
       </c>
       <c r="G250" t="s">
-        <v>529</v>
+        <v>865</v>
       </c>
       <c r="H250" t="s">
-        <v>782</v>
+        <v>505</v>
       </c>
       <c r="I250" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -8110,13 +8113,13 @@
         <v>64530</v>
       </c>
       <c r="G251" t="s">
-        <v>530</v>
+        <v>866</v>
       </c>
       <c r="H251" t="s">
-        <v>783</v>
+        <v>506</v>
       </c>
       <c r="I251" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -8130,13 +8133,13 @@
         <v>52730</v>
       </c>
       <c r="G252" t="s">
-        <v>531</v>
+        <v>867</v>
       </c>
       <c r="H252" t="s">
-        <v>784</v>
+        <v>507</v>
       </c>
       <c r="I252" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -8150,13 +8153,13 @@
         <v>54430</v>
       </c>
       <c r="G253" t="s">
-        <v>532</v>
+        <v>868</v>
       </c>
       <c r="H253" t="s">
-        <v>785</v>
+        <v>508</v>
       </c>
       <c r="I253" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -8170,13 +8173,13 @@
         <v>51825</v>
       </c>
       <c r="G254" t="s">
-        <v>533</v>
+        <v>869</v>
       </c>
       <c r="H254" t="s">
-        <v>786</v>
+        <v>509</v>
       </c>
       <c r="I254" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -8190,13 +8193,13 @@
         <v>64075</v>
       </c>
       <c r="G255" t="s">
-        <v>534</v>
+        <v>870</v>
       </c>
       <c r="H255" t="s">
-        <v>783</v>
+        <v>506</v>
       </c>
       <c r="I255" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -8210,13 +8213,13 @@
         <v>52730</v>
       </c>
       <c r="G256" t="s">
-        <v>535</v>
+        <v>871</v>
       </c>
       <c r="H256" t="s">
-        <v>784</v>
+        <v>507</v>
       </c>
       <c r="I256" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -8230,13 +8233,13 @@
         <v>54430</v>
       </c>
       <c r="G257" t="s">
-        <v>536</v>
+        <v>872</v>
       </c>
       <c r="H257" t="s">
-        <v>787</v>
+        <v>510</v>
       </c>
       <c r="I257" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -8250,13 +8253,13 @@
         <v>58845</v>
       </c>
       <c r="G258" t="s">
-        <v>537</v>
+        <v>873</v>
       </c>
       <c r="H258" t="s">
-        <v>788</v>
+        <v>511</v>
       </c>
       <c r="I258" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -8270,13 +8273,13 @@
         <v>68545</v>
       </c>
       <c r="G259" t="s">
-        <v>538</v>
+        <v>874</v>
       </c>
       <c r="H259" t="s">
-        <v>789</v>
+        <v>512</v>
       </c>
       <c r="I259" t="s">
-        <v>887</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -8290,13 +8293,13 @@
         <v>56990</v>
       </c>
       <c r="G260" t="s">
-        <v>539</v>
+        <v>875</v>
       </c>
       <c r="H260" t="s">
-        <v>790</v>
+        <v>513</v>
       </c>
       <c r="I260" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -8310,13 +8313,13 @@
         <v>58730</v>
       </c>
       <c r="G261" t="s">
-        <v>540</v>
+        <v>876</v>
       </c>
       <c r="H261" t="s">
-        <v>791</v>
+        <v>514</v>
       </c>
       <c r="I261" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -8330,13 +8333,13 @@
         <v>60430</v>
       </c>
       <c r="G262" t="s">
-        <v>541</v>
+        <v>877</v>
       </c>
       <c r="H262" t="s">
-        <v>792</v>
+        <v>515</v>
       </c>
       <c r="I262" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -8350,13 +8353,13 @@
         <v>57775</v>
       </c>
       <c r="G263" t="s">
-        <v>542</v>
+        <v>878</v>
       </c>
       <c r="H263" t="s">
-        <v>793</v>
+        <v>516</v>
       </c>
       <c r="I263" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -8370,13 +8373,13 @@
         <v>70075</v>
       </c>
       <c r="G264" t="s">
-        <v>543</v>
+        <v>879</v>
       </c>
       <c r="H264" t="s">
-        <v>790</v>
+        <v>513</v>
       </c>
       <c r="I264" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -8390,13 +8393,13 @@
         <v>58730</v>
       </c>
       <c r="G265" t="s">
-        <v>544</v>
+        <v>880</v>
       </c>
       <c r="H265" t="s">
-        <v>791</v>
+        <v>514</v>
       </c>
       <c r="I265" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -8410,13 +8413,13 @@
         <v>60430</v>
       </c>
       <c r="G266" t="s">
-        <v>545</v>
+        <v>881</v>
       </c>
       <c r="H266" t="s">
-        <v>794</v>
+        <v>517</v>
       </c>
       <c r="I266" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -8430,13 +8433,13 @@
         <v>60045</v>
       </c>
       <c r="G267" t="s">
-        <v>546</v>
+        <v>882</v>
       </c>
       <c r="H267" t="s">
-        <v>795</v>
+        <v>518</v>
       </c>
       <c r="I267" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -8450,13 +8453,13 @@
         <v>69745</v>
       </c>
       <c r="G268" t="s">
-        <v>547</v>
+        <v>883</v>
       </c>
       <c r="H268" t="s">
-        <v>796</v>
+        <v>519</v>
       </c>
       <c r="I268" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -8470,13 +8473,13 @@
         <v>62990</v>
       </c>
       <c r="G269" t="s">
-        <v>548</v>
+        <v>884</v>
       </c>
       <c r="H269" t="s">
-        <v>797</v>
+        <v>520</v>
       </c>
       <c r="I269" t="s">
-        <v>888</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -8490,13 +8493,13 @@
         <v>65385</v>
       </c>
       <c r="G270" t="s">
-        <v>549</v>
+        <v>885</v>
       </c>
       <c r="H270" t="s">
-        <v>798</v>
+        <v>521</v>
       </c>
       <c r="I270" t="s">
-        <v>889</v>
+        <v>612</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -8510,13 +8513,13 @@
         <v>60678</v>
       </c>
       <c r="G271" t="s">
-        <v>550</v>
+        <v>886</v>
       </c>
       <c r="H271" t="s">
-        <v>799</v>
+        <v>522</v>
       </c>
       <c r="I271" t="s">
-        <v>890</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -8530,13 +8533,13 @@
         <v>64248</v>
       </c>
       <c r="G272" t="s">
-        <v>551</v>
+        <v>887</v>
       </c>
       <c r="H272" t="s">
-        <v>800</v>
+        <v>523</v>
       </c>
       <c r="I272" t="s">
-        <v>891</v>
+        <v>614</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -8550,13 +8553,13 @@
         <v>68056</v>
       </c>
       <c r="G273" t="s">
-        <v>552</v>
+        <v>888</v>
       </c>
       <c r="H273" t="s">
-        <v>801</v>
+        <v>524</v>
       </c>
       <c r="I273" t="s">
-        <v>891</v>
+        <v>614</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -8570,13 +8573,13 @@
         <v>68949</v>
       </c>
       <c r="G274" t="s">
-        <v>553</v>
+        <v>889</v>
       </c>
       <c r="H274" t="s">
-        <v>802</v>
+        <v>525</v>
       </c>
       <c r="I274" t="s">
-        <v>891</v>
+        <v>614</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -8590,13 +8593,13 @@
         <v>61571</v>
       </c>
       <c r="G275" t="s">
-        <v>554</v>
+        <v>890</v>
       </c>
       <c r="H275" t="s">
-        <v>803</v>
+        <v>526</v>
       </c>
       <c r="I275" t="s">
-        <v>892</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -8610,13 +8613,13 @@
         <v>72519</v>
       </c>
       <c r="G276" t="s">
-        <v>555</v>
+        <v>891</v>
       </c>
       <c r="H276" t="s">
-        <v>804</v>
+        <v>527</v>
       </c>
       <c r="I276" t="s">
-        <v>892</v>
+        <v>615</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -8630,13 +8633,13 @@
         <v>65140</v>
       </c>
       <c r="G277" t="s">
-        <v>556</v>
+        <v>892</v>
       </c>
       <c r="H277" t="s">
-        <v>805</v>
+        <v>528</v>
       </c>
       <c r="I277" t="s">
-        <v>892</v>
+        <v>615</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -8648,6 +8651,9 @@
       </c>
       <c r="C278" s="2">
         <v>71626</v>
+      </c>
+      <c r="G278" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
